--- a/EvaluasiTingkatStress.xlsx
+++ b/EvaluasiTingkatStress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unairacid-my.sharepoint.com/personal/airlangga_dwi_satrio-2021_fst_drive_unair_ac_id/Documents/SISTEM INFORMASI UNAIR/SEMESTER 5/AVD PRAK/StressLevelEvaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{C2994534-9231-43B6-993E-EF7D9F62CBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C53F7427-4C30-4345-B0F0-A4F594EF9033}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{C2994534-9231-43B6-993E-EF7D9F62CBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035A7054-21FC-4A02-91A2-31F19488AABD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,15 +519,9 @@
     <t>TY</t>
   </si>
   <si>
-    <t>Edo</t>
-  </si>
-  <si>
     <t>Nathan</t>
   </si>
   <si>
-    <t>Nathania</t>
-  </si>
-  <si>
     <t>Lan</t>
   </si>
   <si>
@@ -538,6 +532,12 @@
   </si>
   <si>
     <t>Feeling of Mastery</t>
+  </si>
+  <si>
+    <t>Nathh</t>
+  </si>
+  <si>
+    <t>apo</t>
   </si>
 </sst>
 </file>
@@ -594,15 +594,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,9 +825,9 @@
   </sheetPr>
   <dimension ref="A1:S257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -840,10 +838,7 @@
     <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.90625" customWidth="1"/>
-    <col min="7" max="11" width="18.90625" customWidth="1"/>
-    <col min="12" max="13" width="18.90625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="18.90625" customWidth="1"/>
-    <col min="15" max="15" width="18.90625" style="7" customWidth="1"/>
+    <col min="7" max="15" width="18.90625" customWidth="1"/>
     <col min="16" max="16" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="18.90625" customWidth="1"/>
   </cols>
@@ -882,17 +877,17 @@
       <c r="K1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>167</v>
+      <c r="L1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>168</v>
+      <c r="O1" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>155</v>
@@ -932,16 +927,16 @@
       <c r="K2" s="1">
         <v>5</v>
       </c>
-      <c r="L2" s="6">
-        <v>2</v>
-      </c>
-      <c r="M2" s="6">
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
         <v>3</v>
       </c>
       <c r="N2" s="1">
         <v>5</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="1">
         <v>1</v>
       </c>
       <c r="P2" s="1">
@@ -982,16 +977,16 @@
       <c r="K3" s="1">
         <v>5</v>
       </c>
-      <c r="L3" s="6">
-        <v>4</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
         <v>3</v>
       </c>
       <c r="N3" s="1">
         <v>2</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" s="1">
@@ -1034,16 +1029,16 @@
       <c r="K4" s="1">
         <v>5</v>
       </c>
-      <c r="L4" s="6">
-        <v>2</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
         <v>2</v>
       </c>
       <c r="N4" s="1">
         <v>5</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" s="1">
@@ -1086,16 +1081,16 @@
       <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="L5" s="6">
-        <v>2</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
         <v>2</v>
       </c>
       <c r="N5" s="1">
         <v>4</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="1">
         <v>1</v>
       </c>
       <c r="P5" s="1">
@@ -1138,16 +1133,16 @@
       <c r="K6" s="1">
         <v>5</v>
       </c>
-      <c r="L6" s="6">
-        <v>2</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
         <v>5</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="1">
         <v>1</v>
       </c>
       <c r="P6" s="1">
@@ -1190,16 +1185,16 @@
       <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="6">
-        <v>5</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
         <v>5</v>
       </c>
       <c r="N7" s="1">
         <v>3</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="1">
         <v>4</v>
       </c>
       <c r="P7" s="1">
@@ -1240,16 +1235,16 @@
       <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="L8" s="6">
-        <v>2</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
         <v>2</v>
       </c>
       <c r="N8" s="1">
         <v>2</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="1">
         <v>2</v>
       </c>
       <c r="P8" s="1">
@@ -1290,16 +1285,16 @@
       <c r="K9" s="1">
         <v>3</v>
       </c>
-      <c r="L9" s="6">
-        <v>3</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
         <v>3</v>
       </c>
       <c r="N9" s="1">
         <v>3</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="1">
         <v>3</v>
       </c>
       <c r="P9" s="1">
@@ -1340,16 +1335,16 @@
       <c r="K10" s="1">
         <v>3</v>
       </c>
-      <c r="L10" s="6">
-        <v>3</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
         <v>3</v>
       </c>
       <c r="N10" s="1">
         <v>4</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="1">
         <v>3</v>
       </c>
       <c r="P10" s="1">
@@ -1390,16 +1385,16 @@
       <c r="K11" s="1">
         <v>3</v>
       </c>
-      <c r="L11" s="6">
-        <v>5</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1">
         <v>4</v>
       </c>
       <c r="N11" s="1">
         <v>2</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="1">
         <v>3</v>
       </c>
       <c r="P11" s="1">
@@ -1440,16 +1435,16 @@
       <c r="K12" s="1">
         <v>4</v>
       </c>
-      <c r="L12" s="6">
-        <v>4</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
         <v>5</v>
       </c>
       <c r="N12" s="1">
         <v>3</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="1">
         <v>3</v>
       </c>
       <c r="P12" s="1">
@@ -1490,16 +1485,16 @@
       <c r="K13" s="1">
         <v>4</v>
       </c>
-      <c r="L13" s="6">
-        <v>2</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
         <v>5</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="1">
         <v>1</v>
       </c>
       <c r="P13" s="1">
@@ -1540,16 +1535,16 @@
       <c r="K14" s="1">
         <v>5</v>
       </c>
-      <c r="L14" s="6">
-        <v>5</v>
-      </c>
-      <c r="M14" s="6">
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
         <v>5</v>
       </c>
       <c r="N14" s="1">
         <v>5</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="1">
         <v>5</v>
       </c>
       <c r="P14" s="1">
@@ -1590,16 +1585,16 @@
       <c r="K15" s="1">
         <v>4</v>
       </c>
-      <c r="L15" s="6">
-        <v>2</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
         <v>2</v>
       </c>
       <c r="N15" s="1">
         <v>4</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="1">
         <v>3</v>
       </c>
       <c r="P15" s="1">
@@ -1640,16 +1635,16 @@
       <c r="K16" s="1">
         <v>5</v>
       </c>
-      <c r="L16" s="6">
-        <v>2</v>
-      </c>
-      <c r="M16" s="6">
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
         <v>1</v>
       </c>
       <c r="N16" s="1">
         <v>4</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="1">
         <v>4</v>
       </c>
       <c r="P16" s="1">
@@ -1690,16 +1685,16 @@
       <c r="K17" s="1">
         <v>3</v>
       </c>
-      <c r="L17" s="6">
-        <v>2</v>
-      </c>
-      <c r="M17" s="6">
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
         <v>2</v>
       </c>
       <c r="N17" s="1">
         <v>2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="1">
         <v>1</v>
       </c>
       <c r="P17" s="1">
@@ -1740,16 +1735,16 @@
       <c r="K18" s="1">
         <v>4</v>
       </c>
-      <c r="L18" s="6">
-        <v>3</v>
-      </c>
-      <c r="M18" s="6">
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
         <v>4</v>
       </c>
       <c r="N18" s="1">
         <v>5</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="1">
         <v>4</v>
       </c>
       <c r="P18" s="1">
@@ -1790,16 +1785,16 @@
       <c r="K19" s="1">
         <v>3</v>
       </c>
-      <c r="L19" s="6">
-        <v>4</v>
-      </c>
-      <c r="M19" s="6">
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
         <v>1</v>
       </c>
       <c r="N19" s="1">
         <v>2</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="1">
         <v>2</v>
       </c>
       <c r="P19" s="1">
@@ -1840,16 +1835,16 @@
       <c r="K20" s="1">
         <v>2</v>
       </c>
-      <c r="L20" s="6">
-        <v>5</v>
-      </c>
-      <c r="M20" s="6">
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1">
         <v>2</v>
       </c>
       <c r="N20" s="1">
         <v>2</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="1">
         <v>3</v>
       </c>
       <c r="P20" s="1">
@@ -1890,16 +1885,16 @@
       <c r="K21" s="1">
         <v>4</v>
       </c>
-      <c r="L21" s="6">
-        <v>2</v>
-      </c>
-      <c r="M21" s="6">
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
         <v>1</v>
       </c>
       <c r="N21" s="1">
         <v>4</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="1">
         <v>1</v>
       </c>
       <c r="P21" s="1">
@@ -1940,16 +1935,16 @@
       <c r="K22" s="1">
         <v>5</v>
       </c>
-      <c r="L22" s="6">
-        <v>3</v>
-      </c>
-      <c r="M22" s="6">
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
         <v>1</v>
       </c>
       <c r="N22" s="1">
         <v>4</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="1">
         <v>5</v>
       </c>
       <c r="P22" s="1">
@@ -1990,16 +1985,16 @@
       <c r="K23" s="1">
         <v>4</v>
       </c>
-      <c r="L23" s="6">
-        <v>2</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
         <v>2</v>
       </c>
       <c r="N23" s="1">
         <v>4</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="1">
         <v>2</v>
       </c>
       <c r="P23" s="1">
@@ -2040,16 +2035,16 @@
       <c r="K24" s="1">
         <v>2</v>
       </c>
-      <c r="L24" s="6">
-        <v>3</v>
-      </c>
-      <c r="M24" s="6">
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1">
         <v>3</v>
       </c>
       <c r="N24" s="1">
         <v>3</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="1">
         <v>2</v>
       </c>
       <c r="P24" s="1">
@@ -2090,16 +2085,16 @@
       <c r="K25" s="1">
         <v>3</v>
       </c>
-      <c r="L25" s="6">
-        <v>4</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
         <v>4</v>
       </c>
       <c r="N25" s="1">
         <v>3</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="1">
         <v>3</v>
       </c>
       <c r="P25" s="1">
@@ -2140,16 +2135,16 @@
       <c r="K26" s="1">
         <v>5</v>
       </c>
-      <c r="L26" s="6">
-        <v>3</v>
-      </c>
-      <c r="M26" s="6">
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
         <v>3</v>
       </c>
       <c r="N26" s="1">
         <v>4</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="1">
         <v>4</v>
       </c>
       <c r="P26" s="1">
@@ -2190,16 +2185,16 @@
       <c r="K27" s="1">
         <v>4</v>
       </c>
-      <c r="L27" s="6">
-        <v>3</v>
-      </c>
-      <c r="M27" s="6">
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
         <v>2</v>
       </c>
       <c r="N27" s="1">
         <v>3</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="1">
         <v>3</v>
       </c>
       <c r="P27" s="1">
@@ -2240,16 +2235,16 @@
       <c r="K28" s="1">
         <v>3</v>
       </c>
-      <c r="L28" s="6">
-        <v>2</v>
-      </c>
-      <c r="M28" s="6">
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
         <v>3</v>
       </c>
       <c r="N28" s="1">
         <v>4</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="1">
         <v>5</v>
       </c>
       <c r="P28" s="1">
@@ -2290,16 +2285,16 @@
       <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="L29" s="6">
-        <v>4</v>
-      </c>
-      <c r="M29" s="6">
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1">
         <v>3</v>
       </c>
       <c r="N29" s="1">
         <v>3</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="1">
         <v>3</v>
       </c>
       <c r="P29" s="1">
@@ -2340,16 +2335,16 @@
       <c r="K30" s="1">
         <v>4</v>
       </c>
-      <c r="L30" s="6">
-        <v>2</v>
-      </c>
-      <c r="M30" s="6">
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
         <v>2</v>
       </c>
       <c r="N30" s="1">
         <v>4</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="1">
         <v>1</v>
       </c>
       <c r="P30" s="1">
@@ -2390,16 +2385,16 @@
       <c r="K31" s="1">
         <v>2</v>
       </c>
-      <c r="L31" s="6">
-        <v>4</v>
-      </c>
-      <c r="M31" s="6">
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1">
         <v>2</v>
       </c>
       <c r="N31" s="1">
         <v>2</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="1">
         <v>2</v>
       </c>
       <c r="P31" s="1">
@@ -2440,16 +2435,16 @@
       <c r="K32" s="1">
         <v>4</v>
       </c>
-      <c r="L32" s="6">
-        <v>3</v>
-      </c>
-      <c r="M32" s="6">
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
         <v>2</v>
       </c>
       <c r="N32" s="1">
         <v>4</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="1">
         <v>2</v>
       </c>
       <c r="P32" s="1">
@@ -2490,16 +2485,16 @@
       <c r="K33" s="1">
         <v>4</v>
       </c>
-      <c r="L33" s="6">
-        <v>2</v>
-      </c>
-      <c r="M33" s="6">
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
         <v>3</v>
       </c>
       <c r="N33" s="1">
         <v>4</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="1">
         <v>3</v>
       </c>
       <c r="P33" s="1">
@@ -2540,16 +2535,16 @@
       <c r="K34" s="1">
         <v>3</v>
       </c>
-      <c r="L34" s="6">
-        <v>4</v>
-      </c>
-      <c r="M34" s="6">
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1">
         <v>3</v>
       </c>
       <c r="N34" s="1">
         <v>4</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="1">
         <v>4</v>
       </c>
       <c r="P34" s="1">
@@ -2590,16 +2585,16 @@
       <c r="K35" s="1">
         <v>2</v>
       </c>
-      <c r="L35" s="6">
-        <v>3</v>
-      </c>
-      <c r="M35" s="6">
+      <c r="L35" s="1">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1">
         <v>4</v>
       </c>
       <c r="N35" s="1">
         <v>3</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="1">
         <v>3</v>
       </c>
       <c r="P35" s="1">
@@ -2640,16 +2635,16 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="L36" s="6">
-        <v>3</v>
-      </c>
-      <c r="M36" s="6">
+      <c r="L36" s="1">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1">
         <v>3</v>
       </c>
       <c r="N36" s="1">
         <v>3</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="1">
         <v>2</v>
       </c>
       <c r="P36" s="1">
@@ -2690,16 +2685,16 @@
       <c r="K37" s="1">
         <v>2</v>
       </c>
-      <c r="L37" s="6">
-        <v>3</v>
-      </c>
-      <c r="M37" s="6">
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1">
         <v>4</v>
       </c>
       <c r="N37" s="1">
         <v>3</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="1">
         <v>1</v>
       </c>
       <c r="P37" s="1">
@@ -2740,16 +2735,16 @@
       <c r="K38" s="1">
         <v>4</v>
       </c>
-      <c r="L38" s="6">
-        <v>4</v>
-      </c>
-      <c r="M38" s="6">
+      <c r="L38" s="1">
+        <v>4</v>
+      </c>
+      <c r="M38" s="1">
         <v>2</v>
       </c>
       <c r="N38" s="1">
         <v>3</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="1">
         <v>2</v>
       </c>
       <c r="P38" s="1">
@@ -2790,16 +2785,16 @@
       <c r="K39" s="1">
         <v>4</v>
       </c>
-      <c r="L39" s="6">
-        <v>4</v>
-      </c>
-      <c r="M39" s="6">
+      <c r="L39" s="1">
+        <v>4</v>
+      </c>
+      <c r="M39" s="1">
         <v>3</v>
       </c>
       <c r="N39" s="1">
         <v>3</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="1">
         <v>3</v>
       </c>
       <c r="P39" s="1">
@@ -2840,16 +2835,16 @@
       <c r="K40" s="1">
         <v>4</v>
       </c>
-      <c r="L40" s="6">
-        <v>3</v>
-      </c>
-      <c r="M40" s="6">
+      <c r="L40" s="1">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1">
         <v>4</v>
       </c>
       <c r="N40" s="1">
         <v>3</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="1">
         <v>3</v>
       </c>
       <c r="P40" s="1">
@@ -2890,16 +2885,16 @@
       <c r="K41" s="1">
         <v>4</v>
       </c>
-      <c r="L41" s="6">
-        <v>2</v>
-      </c>
-      <c r="M41" s="6">
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1">
         <v>3</v>
       </c>
       <c r="N41" s="1">
         <v>4</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="1">
         <v>2</v>
       </c>
       <c r="P41" s="1">
@@ -2940,16 +2935,16 @@
       <c r="K42" s="1">
         <v>5</v>
       </c>
-      <c r="L42" s="6">
-        <v>3</v>
-      </c>
-      <c r="M42" s="6">
+      <c r="L42" s="1">
+        <v>3</v>
+      </c>
+      <c r="M42" s="1">
         <v>3</v>
       </c>
       <c r="N42" s="1">
         <v>4</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="1">
         <v>5</v>
       </c>
       <c r="P42" s="1">
@@ -2990,16 +2985,16 @@
       <c r="K43" s="1">
         <v>4</v>
       </c>
-      <c r="L43" s="6">
-        <v>4</v>
-      </c>
-      <c r="M43" s="6">
+      <c r="L43" s="1">
+        <v>4</v>
+      </c>
+      <c r="M43" s="1">
         <v>5</v>
       </c>
       <c r="N43" s="1">
         <v>2</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="1">
         <v>2</v>
       </c>
       <c r="P43" s="1">
@@ -3040,16 +3035,16 @@
       <c r="K44" s="1">
         <v>4</v>
       </c>
-      <c r="L44" s="6">
-        <v>3</v>
-      </c>
-      <c r="M44" s="6">
+      <c r="L44" s="1">
+        <v>3</v>
+      </c>
+      <c r="M44" s="1">
         <v>3</v>
       </c>
       <c r="N44" s="1">
         <v>3</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="1">
         <v>1</v>
       </c>
       <c r="P44" s="1">
@@ -3090,16 +3085,16 @@
       <c r="K45" s="1">
         <v>3</v>
       </c>
-      <c r="L45" s="6">
-        <v>5</v>
-      </c>
-      <c r="M45" s="6">
+      <c r="L45" s="1">
+        <v>5</v>
+      </c>
+      <c r="M45" s="1">
         <v>3</v>
       </c>
       <c r="N45" s="1">
         <v>4</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="1">
         <v>3</v>
       </c>
       <c r="P45" s="1">
@@ -3140,16 +3135,16 @@
       <c r="K46" s="1">
         <v>4</v>
       </c>
-      <c r="L46" s="6">
-        <v>2</v>
-      </c>
-      <c r="M46" s="6">
+      <c r="L46" s="1">
+        <v>2</v>
+      </c>
+      <c r="M46" s="1">
         <v>3</v>
       </c>
       <c r="N46" s="1">
         <v>4</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="1">
         <v>3</v>
       </c>
       <c r="P46" s="1">
@@ -3190,16 +3185,16 @@
       <c r="K47" s="1">
         <v>4</v>
       </c>
-      <c r="L47" s="6">
-        <v>2</v>
-      </c>
-      <c r="M47" s="6">
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="1">
         <v>2</v>
       </c>
       <c r="N47" s="1">
         <v>4</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="1">
         <v>2</v>
       </c>
       <c r="P47" s="1">
@@ -3240,16 +3235,16 @@
       <c r="K48" s="1">
         <v>2</v>
       </c>
-      <c r="L48" s="6">
-        <v>4</v>
-      </c>
-      <c r="M48" s="6">
+      <c r="L48" s="1">
+        <v>4</v>
+      </c>
+      <c r="M48" s="1">
         <v>4</v>
       </c>
       <c r="N48" s="1">
         <v>3</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="1">
         <v>2</v>
       </c>
       <c r="P48" s="1">
@@ -3290,16 +3285,16 @@
       <c r="K49" s="1">
         <v>5</v>
       </c>
-      <c r="L49" s="6">
-        <v>4</v>
-      </c>
-      <c r="M49" s="6">
+      <c r="L49" s="1">
+        <v>4</v>
+      </c>
+      <c r="M49" s="1">
         <v>2</v>
       </c>
       <c r="N49" s="1">
         <v>4</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="1">
         <v>3</v>
       </c>
       <c r="P49" s="1">
@@ -3340,16 +3335,16 @@
       <c r="K50" s="1">
         <v>4</v>
       </c>
-      <c r="L50" s="6">
-        <v>3</v>
-      </c>
-      <c r="M50" s="6">
+      <c r="L50" s="1">
+        <v>3</v>
+      </c>
+      <c r="M50" s="1">
         <v>3</v>
       </c>
       <c r="N50" s="1">
         <v>2</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="1">
         <v>2</v>
       </c>
       <c r="P50" s="1">
@@ -3390,16 +3385,16 @@
       <c r="K51" s="1">
         <v>4</v>
       </c>
-      <c r="L51" s="6">
-        <v>2</v>
-      </c>
-      <c r="M51" s="6">
+      <c r="L51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="1">
         <v>2</v>
       </c>
       <c r="N51" s="1">
         <v>4</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="1">
         <v>1</v>
       </c>
       <c r="P51" s="1">
@@ -3440,16 +3435,16 @@
       <c r="K52" s="1">
         <v>4</v>
       </c>
-      <c r="L52" s="6">
-        <v>2</v>
-      </c>
-      <c r="M52" s="6">
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+      <c r="M52" s="1">
         <v>2</v>
       </c>
       <c r="N52" s="1">
         <v>3</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="1">
         <v>2</v>
       </c>
       <c r="P52" s="1">
@@ -3490,16 +3485,16 @@
       <c r="K53" s="1">
         <v>5</v>
       </c>
-      <c r="L53" s="6">
-        <v>2</v>
-      </c>
-      <c r="M53" s="6">
+      <c r="L53" s="1">
+        <v>2</v>
+      </c>
+      <c r="M53" s="1">
         <v>2</v>
       </c>
       <c r="N53" s="1">
         <v>4</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="1">
         <v>2</v>
       </c>
       <c r="P53" s="1">
@@ -3540,16 +3535,16 @@
       <c r="K54" s="1">
         <v>5</v>
       </c>
-      <c r="L54" s="6">
-        <v>5</v>
-      </c>
-      <c r="M54" s="6">
+      <c r="L54" s="1">
+        <v>5</v>
+      </c>
+      <c r="M54" s="1">
         <v>2</v>
       </c>
       <c r="N54" s="1">
         <v>5</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="1">
         <v>1</v>
       </c>
       <c r="P54" s="1">
@@ -3590,16 +3585,16 @@
       <c r="K55" s="1">
         <v>4</v>
       </c>
-      <c r="L55" s="6">
-        <v>4</v>
-      </c>
-      <c r="M55" s="6">
+      <c r="L55" s="1">
+        <v>4</v>
+      </c>
+      <c r="M55" s="1">
         <v>3</v>
       </c>
       <c r="N55" s="1">
         <v>3</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="1">
         <v>1</v>
       </c>
       <c r="P55" s="1">
@@ -3640,16 +3635,16 @@
       <c r="K56" s="1">
         <v>5</v>
       </c>
-      <c r="L56" s="6">
-        <v>2</v>
-      </c>
-      <c r="M56" s="6">
+      <c r="L56" s="1">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1">
         <v>1</v>
       </c>
       <c r="N56" s="1">
         <v>5</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="1">
         <v>3</v>
       </c>
       <c r="P56" s="1">
@@ -3690,16 +3685,16 @@
       <c r="K57" s="1">
         <v>3</v>
       </c>
-      <c r="L57" s="6">
-        <v>3</v>
-      </c>
-      <c r="M57" s="6">
+      <c r="L57" s="1">
+        <v>3</v>
+      </c>
+      <c r="M57" s="1">
         <v>3</v>
       </c>
       <c r="N57" s="1">
         <v>2</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="1">
         <v>4</v>
       </c>
       <c r="P57" s="1">
@@ -3740,16 +3735,16 @@
       <c r="K58" s="1">
         <v>5</v>
       </c>
-      <c r="L58" s="6">
-        <v>3</v>
-      </c>
-      <c r="M58" s="6">
+      <c r="L58" s="1">
+        <v>3</v>
+      </c>
+      <c r="M58" s="1">
         <v>3</v>
       </c>
       <c r="N58" s="1">
         <v>4</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="1">
         <v>4</v>
       </c>
       <c r="P58" s="1">
@@ -3790,16 +3785,16 @@
       <c r="K59" s="1">
         <v>4</v>
       </c>
-      <c r="L59" s="6">
-        <v>2</v>
-      </c>
-      <c r="M59" s="6">
+      <c r="L59" s="1">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1">
         <v>1</v>
       </c>
       <c r="N59" s="1">
         <v>4</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="1">
         <v>1</v>
       </c>
       <c r="P59" s="1">
@@ -3840,16 +3835,16 @@
       <c r="K60" s="1">
         <v>3</v>
       </c>
-      <c r="L60" s="6">
-        <v>4</v>
-      </c>
-      <c r="M60" s="6">
+      <c r="L60" s="1">
+        <v>4</v>
+      </c>
+      <c r="M60" s="1">
         <v>3</v>
       </c>
       <c r="N60" s="1">
         <v>2</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60" s="1">
         <v>3</v>
       </c>
       <c r="P60" s="1">
@@ -3890,16 +3885,16 @@
       <c r="K61" s="1">
         <v>5</v>
       </c>
-      <c r="L61" s="6">
-        <v>3</v>
-      </c>
-      <c r="M61" s="6">
+      <c r="L61" s="1">
+        <v>3</v>
+      </c>
+      <c r="M61" s="1">
         <v>3</v>
       </c>
       <c r="N61" s="1">
         <v>2</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="1">
         <v>2</v>
       </c>
       <c r="P61" s="1">
@@ -3940,16 +3935,16 @@
       <c r="K62" s="1">
         <v>4</v>
       </c>
-      <c r="L62" s="6">
-        <v>4</v>
-      </c>
-      <c r="M62" s="6">
+      <c r="L62" s="1">
+        <v>4</v>
+      </c>
+      <c r="M62" s="1">
         <v>3</v>
       </c>
       <c r="N62" s="1">
         <v>3</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62" s="1">
         <v>3</v>
       </c>
       <c r="P62" s="1">
@@ -3990,16 +3985,16 @@
       <c r="K63" s="1">
         <v>4</v>
       </c>
-      <c r="L63" s="6">
-        <v>4</v>
-      </c>
-      <c r="M63" s="6">
+      <c r="L63" s="1">
+        <v>4</v>
+      </c>
+      <c r="M63" s="1">
         <v>4</v>
       </c>
       <c r="N63" s="1">
         <v>4</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O63" s="1">
         <v>3</v>
       </c>
       <c r="P63" s="1">
@@ -4040,16 +4035,16 @@
       <c r="K64" s="1">
         <v>2</v>
       </c>
-      <c r="L64" s="6">
-        <v>5</v>
-      </c>
-      <c r="M64" s="6">
+      <c r="L64" s="1">
+        <v>5</v>
+      </c>
+      <c r="M64" s="1">
         <v>4</v>
       </c>
       <c r="N64" s="1">
         <v>2</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O64" s="1">
         <v>3</v>
       </c>
       <c r="P64" s="1">
@@ -4090,16 +4085,16 @@
       <c r="K65" s="1">
         <v>3</v>
       </c>
-      <c r="L65" s="6">
-        <v>3</v>
-      </c>
-      <c r="M65" s="6">
+      <c r="L65" s="1">
+        <v>3</v>
+      </c>
+      <c r="M65" s="1">
         <v>3</v>
       </c>
       <c r="N65" s="1">
         <v>3</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O65" s="1">
         <v>3</v>
       </c>
       <c r="P65" s="1">
@@ -4140,16 +4135,16 @@
       <c r="K66" s="1">
         <v>5</v>
       </c>
-      <c r="L66" s="6">
-        <v>1</v>
-      </c>
-      <c r="M66" s="6">
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
         <v>2</v>
       </c>
       <c r="N66" s="1">
         <v>5</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O66" s="1">
         <v>1</v>
       </c>
       <c r="P66" s="1">
@@ -4190,16 +4185,16 @@
       <c r="K67" s="1">
         <v>4</v>
       </c>
-      <c r="L67" s="6">
-        <v>4</v>
-      </c>
-      <c r="M67" s="6">
+      <c r="L67" s="1">
+        <v>4</v>
+      </c>
+      <c r="M67" s="1">
         <v>3</v>
       </c>
       <c r="N67" s="1">
         <v>2</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="1">
         <v>2</v>
       </c>
       <c r="P67" s="1">
@@ -4240,16 +4235,16 @@
       <c r="K68" s="1">
         <v>4</v>
       </c>
-      <c r="L68" s="6">
-        <v>3</v>
-      </c>
-      <c r="M68" s="6">
+      <c r="L68" s="1">
+        <v>3</v>
+      </c>
+      <c r="M68" s="1">
         <v>2</v>
       </c>
       <c r="N68" s="1">
         <v>3</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O68" s="1">
         <v>2</v>
       </c>
       <c r="P68" s="1">
@@ -4290,16 +4285,16 @@
       <c r="K69" s="1">
         <v>2</v>
       </c>
-      <c r="L69" s="6">
-        <v>2</v>
-      </c>
-      <c r="M69" s="6">
+      <c r="L69" s="1">
+        <v>2</v>
+      </c>
+      <c r="M69" s="1">
         <v>4</v>
       </c>
       <c r="N69" s="1">
         <v>2</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="1">
         <v>3</v>
       </c>
       <c r="P69" s="1">
@@ -4340,16 +4335,16 @@
       <c r="K70" s="1">
         <v>4</v>
       </c>
-      <c r="L70" s="6">
-        <v>3</v>
-      </c>
-      <c r="M70" s="6">
+      <c r="L70" s="1">
+        <v>3</v>
+      </c>
+      <c r="M70" s="1">
         <v>2</v>
       </c>
       <c r="N70" s="1">
         <v>3</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70" s="1">
         <v>3</v>
       </c>
       <c r="P70" s="1">
@@ -4390,16 +4385,16 @@
       <c r="K71" s="1">
         <v>5</v>
       </c>
-      <c r="L71" s="6">
-        <v>3</v>
-      </c>
-      <c r="M71" s="6">
+      <c r="L71" s="1">
+        <v>3</v>
+      </c>
+      <c r="M71" s="1">
         <v>3</v>
       </c>
       <c r="N71" s="1">
         <v>3</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="1">
         <v>4</v>
       </c>
       <c r="P71" s="1">
@@ -4440,16 +4435,16 @@
       <c r="K72" s="1">
         <v>5</v>
       </c>
-      <c r="L72" s="6">
-        <v>3</v>
-      </c>
-      <c r="M72" s="6">
+      <c r="L72" s="1">
+        <v>3</v>
+      </c>
+      <c r="M72" s="1">
         <v>2</v>
       </c>
       <c r="N72" s="1">
         <v>4</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72" s="1">
         <v>3</v>
       </c>
       <c r="P72" s="1">
@@ -4490,16 +4485,16 @@
       <c r="K73" s="1">
         <v>5</v>
       </c>
-      <c r="L73" s="6">
-        <v>4</v>
-      </c>
-      <c r="M73" s="6">
+      <c r="L73" s="1">
+        <v>4</v>
+      </c>
+      <c r="M73" s="1">
         <v>4</v>
       </c>
       <c r="N73" s="1">
         <v>4</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O73" s="1">
         <v>4</v>
       </c>
       <c r="P73" s="1">
@@ -4540,16 +4535,16 @@
       <c r="K74" s="1">
         <v>3</v>
       </c>
-      <c r="L74" s="6">
-        <v>3</v>
-      </c>
-      <c r="M74" s="6">
+      <c r="L74" s="1">
+        <v>3</v>
+      </c>
+      <c r="M74" s="1">
         <v>2</v>
       </c>
       <c r="N74" s="1">
         <v>4</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O74" s="1">
         <v>3</v>
       </c>
       <c r="P74" s="1">
@@ -4590,16 +4585,16 @@
       <c r="K75" s="1">
         <v>3</v>
       </c>
-      <c r="L75" s="6">
-        <v>3</v>
-      </c>
-      <c r="M75" s="6">
+      <c r="L75" s="1">
+        <v>3</v>
+      </c>
+      <c r="M75" s="1">
         <v>4</v>
       </c>
       <c r="N75" s="1">
         <v>3</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O75" s="1">
         <v>4</v>
       </c>
       <c r="P75" s="1">
@@ -4640,16 +4635,16 @@
       <c r="K76" s="1">
         <v>4</v>
       </c>
-      <c r="L76" s="6">
-        <v>3</v>
-      </c>
-      <c r="M76" s="6">
+      <c r="L76" s="1">
+        <v>3</v>
+      </c>
+      <c r="M76" s="1">
         <v>3</v>
       </c>
       <c r="N76" s="1">
         <v>2</v>
       </c>
-      <c r="O76" s="6">
+      <c r="O76" s="1">
         <v>3</v>
       </c>
       <c r="P76" s="1">
@@ -4690,16 +4685,16 @@
       <c r="K77" s="1">
         <v>4</v>
       </c>
-      <c r="L77" s="6">
-        <v>4</v>
-      </c>
-      <c r="M77" s="6">
+      <c r="L77" s="1">
+        <v>4</v>
+      </c>
+      <c r="M77" s="1">
         <v>4</v>
       </c>
       <c r="N77" s="1">
         <v>4</v>
       </c>
-      <c r="O77" s="6">
+      <c r="O77" s="1">
         <v>4</v>
       </c>
       <c r="P77" s="1">
@@ -4740,16 +4735,16 @@
       <c r="K78" s="1">
         <v>4</v>
       </c>
-      <c r="L78" s="6">
-        <v>4</v>
-      </c>
-      <c r="M78" s="6">
+      <c r="L78" s="1">
+        <v>4</v>
+      </c>
+      <c r="M78" s="1">
         <v>4</v>
       </c>
       <c r="N78" s="1">
         <v>3</v>
       </c>
-      <c r="O78" s="6">
+      <c r="O78" s="1">
         <v>4</v>
       </c>
       <c r="P78" s="1">
@@ -4790,16 +4785,16 @@
       <c r="K79" s="1">
         <v>4</v>
       </c>
-      <c r="L79" s="6">
-        <v>5</v>
-      </c>
-      <c r="M79" s="6">
+      <c r="L79" s="1">
+        <v>5</v>
+      </c>
+      <c r="M79" s="1">
         <v>3</v>
       </c>
       <c r="N79" s="1">
         <v>3</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79" s="1">
         <v>3</v>
       </c>
       <c r="P79" s="1">
@@ -4840,16 +4835,16 @@
       <c r="K80" s="1">
         <v>4</v>
       </c>
-      <c r="L80" s="6">
-        <v>3</v>
-      </c>
-      <c r="M80" s="6">
+      <c r="L80" s="1">
+        <v>3</v>
+      </c>
+      <c r="M80" s="1">
         <v>2</v>
       </c>
       <c r="N80" s="1">
         <v>4</v>
       </c>
-      <c r="O80" s="6">
+      <c r="O80" s="1">
         <v>2</v>
       </c>
       <c r="P80" s="1">
@@ -4890,16 +4885,16 @@
       <c r="K81" s="1">
         <v>3</v>
       </c>
-      <c r="L81" s="6">
-        <v>4</v>
-      </c>
-      <c r="M81" s="6">
+      <c r="L81" s="1">
+        <v>4</v>
+      </c>
+      <c r="M81" s="1">
         <v>4</v>
       </c>
       <c r="N81" s="1">
         <v>4</v>
       </c>
-      <c r="O81" s="6">
+      <c r="O81" s="1">
         <v>4</v>
       </c>
       <c r="P81" s="1">
@@ -4940,16 +4935,16 @@
       <c r="K82" s="1">
         <v>4</v>
       </c>
-      <c r="L82" s="6">
-        <v>3</v>
-      </c>
-      <c r="M82" s="6">
+      <c r="L82" s="1">
+        <v>3</v>
+      </c>
+      <c r="M82" s="1">
         <v>3</v>
       </c>
       <c r="N82" s="1">
         <v>3</v>
       </c>
-      <c r="O82" s="6">
+      <c r="O82" s="1">
         <v>3</v>
       </c>
       <c r="P82" s="1">
@@ -4990,16 +4985,16 @@
       <c r="K83" s="1">
         <v>3</v>
       </c>
-      <c r="L83" s="6">
-        <v>4</v>
-      </c>
-      <c r="M83" s="6">
+      <c r="L83" s="1">
+        <v>4</v>
+      </c>
+      <c r="M83" s="1">
         <v>2</v>
       </c>
       <c r="N83" s="1">
         <v>3</v>
       </c>
-      <c r="O83" s="6">
+      <c r="O83" s="1">
         <v>2</v>
       </c>
       <c r="P83" s="1">
@@ -5040,16 +5035,16 @@
       <c r="K84" s="1">
         <v>4</v>
       </c>
-      <c r="L84" s="6">
-        <v>5</v>
-      </c>
-      <c r="M84" s="6">
+      <c r="L84" s="1">
+        <v>5</v>
+      </c>
+      <c r="M84" s="1">
         <v>3</v>
       </c>
       <c r="N84" s="1">
         <v>4</v>
       </c>
-      <c r="O84" s="6">
+      <c r="O84" s="1">
         <v>1</v>
       </c>
       <c r="P84" s="1">
@@ -5090,16 +5085,16 @@
       <c r="K85" s="1">
         <v>2</v>
       </c>
-      <c r="L85" s="6">
-        <v>4</v>
-      </c>
-      <c r="M85" s="6">
+      <c r="L85" s="1">
+        <v>4</v>
+      </c>
+      <c r="M85" s="1">
         <v>2</v>
       </c>
       <c r="N85" s="1">
         <v>5</v>
       </c>
-      <c r="O85" s="6">
+      <c r="O85" s="1">
         <v>1</v>
       </c>
       <c r="P85" s="1">
@@ -5140,16 +5135,16 @@
       <c r="K86" s="1">
         <v>4</v>
       </c>
-      <c r="L86" s="6">
-        <v>2</v>
-      </c>
-      <c r="M86" s="6">
+      <c r="L86" s="1">
+        <v>2</v>
+      </c>
+      <c r="M86" s="1">
         <v>2</v>
       </c>
       <c r="N86" s="1">
         <v>4</v>
       </c>
-      <c r="O86" s="6">
+      <c r="O86" s="1">
         <v>2</v>
       </c>
       <c r="P86" s="1">
@@ -5190,16 +5185,16 @@
       <c r="K87" s="1">
         <v>4</v>
       </c>
-      <c r="L87" s="6">
-        <v>3</v>
-      </c>
-      <c r="M87" s="6">
+      <c r="L87" s="1">
+        <v>3</v>
+      </c>
+      <c r="M87" s="1">
         <v>3</v>
       </c>
       <c r="N87" s="1">
         <v>4</v>
       </c>
-      <c r="O87" s="6">
+      <c r="O87" s="1">
         <v>4</v>
       </c>
       <c r="P87" s="1">
@@ -5240,16 +5235,16 @@
       <c r="K88" s="1">
         <v>5</v>
       </c>
-      <c r="L88" s="6">
-        <v>3</v>
-      </c>
-      <c r="M88" s="6">
+      <c r="L88" s="1">
+        <v>3</v>
+      </c>
+      <c r="M88" s="1">
         <v>3</v>
       </c>
       <c r="N88" s="1">
         <v>4</v>
       </c>
-      <c r="O88" s="6">
+      <c r="O88" s="1">
         <v>3</v>
       </c>
       <c r="P88" s="1">
@@ -5290,16 +5285,16 @@
       <c r="K89" s="1">
         <v>3</v>
       </c>
-      <c r="L89" s="6">
-        <v>3</v>
-      </c>
-      <c r="M89" s="6">
+      <c r="L89" s="1">
+        <v>3</v>
+      </c>
+      <c r="M89" s="1">
         <v>3</v>
       </c>
       <c r="N89" s="1">
         <v>3</v>
       </c>
-      <c r="O89" s="6">
+      <c r="O89" s="1">
         <v>3</v>
       </c>
       <c r="P89" s="1">
@@ -5340,16 +5335,16 @@
       <c r="K90" s="1">
         <v>4</v>
       </c>
-      <c r="L90" s="6">
-        <v>3</v>
-      </c>
-      <c r="M90" s="6">
+      <c r="L90" s="1">
+        <v>3</v>
+      </c>
+      <c r="M90" s="1">
         <v>3</v>
       </c>
       <c r="N90" s="1">
         <v>4</v>
       </c>
-      <c r="O90" s="6">
+      <c r="O90" s="1">
         <v>2</v>
       </c>
       <c r="P90" s="1">
@@ -5390,16 +5385,16 @@
       <c r="K91" s="1">
         <v>5</v>
       </c>
-      <c r="L91" s="6">
-        <v>3</v>
-      </c>
-      <c r="M91" s="6">
+      <c r="L91" s="1">
+        <v>3</v>
+      </c>
+      <c r="M91" s="1">
         <v>3</v>
       </c>
       <c r="N91" s="1">
         <v>4</v>
       </c>
-      <c r="O91" s="6">
+      <c r="O91" s="1">
         <v>2</v>
       </c>
       <c r="P91" s="1">
@@ -5440,16 +5435,16 @@
       <c r="K92" s="1">
         <v>4</v>
       </c>
-      <c r="L92" s="6">
-        <v>3</v>
-      </c>
-      <c r="M92" s="6">
+      <c r="L92" s="1">
+        <v>3</v>
+      </c>
+      <c r="M92" s="1">
         <v>1</v>
       </c>
       <c r="N92" s="1">
         <v>4</v>
       </c>
-      <c r="O92" s="6">
+      <c r="O92" s="1">
         <v>2</v>
       </c>
       <c r="P92" s="1">
@@ -5490,16 +5485,16 @@
       <c r="K93" s="1">
         <v>4</v>
       </c>
-      <c r="L93" s="6">
-        <v>2</v>
-      </c>
-      <c r="M93" s="6">
+      <c r="L93" s="1">
+        <v>2</v>
+      </c>
+      <c r="M93" s="1">
         <v>2</v>
       </c>
       <c r="N93" s="1">
         <v>4</v>
       </c>
-      <c r="O93" s="6">
+      <c r="O93" s="1">
         <v>4</v>
       </c>
       <c r="P93" s="1">
@@ -5540,16 +5535,16 @@
       <c r="K94" s="1">
         <v>4</v>
       </c>
-      <c r="L94" s="6">
-        <v>4</v>
-      </c>
-      <c r="M94" s="6">
+      <c r="L94" s="1">
+        <v>4</v>
+      </c>
+      <c r="M94" s="1">
         <v>4</v>
       </c>
       <c r="N94" s="1">
         <v>3</v>
       </c>
-      <c r="O94" s="6">
+      <c r="O94" s="1">
         <v>4</v>
       </c>
       <c r="P94" s="1">
@@ -5590,16 +5585,16 @@
       <c r="K95" s="1">
         <v>4</v>
       </c>
-      <c r="L95" s="6">
-        <v>4</v>
-      </c>
-      <c r="M95" s="6">
+      <c r="L95" s="1">
+        <v>4</v>
+      </c>
+      <c r="M95" s="1">
         <v>3</v>
       </c>
       <c r="N95" s="1">
         <v>3</v>
       </c>
-      <c r="O95" s="6">
+      <c r="O95" s="1">
         <v>2</v>
       </c>
       <c r="P95" s="1">
@@ -5640,16 +5635,16 @@
       <c r="K96" s="1">
         <v>3</v>
       </c>
-      <c r="L96" s="6">
-        <v>3</v>
-      </c>
-      <c r="M96" s="6">
+      <c r="L96" s="1">
+        <v>3</v>
+      </c>
+      <c r="M96" s="1">
         <v>4</v>
       </c>
       <c r="N96" s="1">
         <v>2</v>
       </c>
-      <c r="O96" s="6">
+      <c r="O96" s="1">
         <v>3</v>
       </c>
       <c r="P96" s="1">
@@ -5690,16 +5685,16 @@
       <c r="K97" s="1">
         <v>5</v>
       </c>
-      <c r="L97" s="6">
-        <v>3</v>
-      </c>
-      <c r="M97" s="6">
+      <c r="L97" s="1">
+        <v>3</v>
+      </c>
+      <c r="M97" s="1">
         <v>3</v>
       </c>
       <c r="N97" s="1">
         <v>4</v>
       </c>
-      <c r="O97" s="6">
+      <c r="O97" s="1">
         <v>3</v>
       </c>
       <c r="P97" s="1">
@@ -5740,16 +5735,16 @@
       <c r="K98" s="1">
         <v>4</v>
       </c>
-      <c r="L98" s="6">
-        <v>3</v>
-      </c>
-      <c r="M98" s="6">
+      <c r="L98" s="1">
+        <v>3</v>
+      </c>
+      <c r="M98" s="1">
         <v>3</v>
       </c>
       <c r="N98" s="1">
         <v>3</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O98" s="1">
         <v>3</v>
       </c>
       <c r="P98" s="1">
@@ -5790,16 +5785,16 @@
       <c r="K99" s="1">
         <v>3</v>
       </c>
-      <c r="L99" s="6">
-        <v>3</v>
-      </c>
-      <c r="M99" s="6">
+      <c r="L99" s="1">
+        <v>3</v>
+      </c>
+      <c r="M99" s="1">
         <v>4</v>
       </c>
       <c r="N99" s="1">
         <v>4</v>
       </c>
-      <c r="O99" s="6">
+      <c r="O99" s="1">
         <v>2</v>
       </c>
       <c r="P99" s="1">
@@ -5840,16 +5835,16 @@
       <c r="K100" s="1">
         <v>3</v>
       </c>
-      <c r="L100" s="6">
-        <v>4</v>
-      </c>
-      <c r="M100" s="6">
+      <c r="L100" s="1">
+        <v>4</v>
+      </c>
+      <c r="M100" s="1">
         <v>4</v>
       </c>
       <c r="N100" s="1">
         <v>2</v>
       </c>
-      <c r="O100" s="6">
+      <c r="O100" s="1">
         <v>3</v>
       </c>
       <c r="P100" s="1">
@@ -5890,16 +5885,16 @@
       <c r="K101" s="1">
         <v>3</v>
       </c>
-      <c r="L101" s="6">
-        <v>3</v>
-      </c>
-      <c r="M101" s="6">
+      <c r="L101" s="1">
+        <v>3</v>
+      </c>
+      <c r="M101" s="1">
         <v>2</v>
       </c>
       <c r="N101" s="1">
         <v>4</v>
       </c>
-      <c r="O101" s="6">
+      <c r="O101" s="1">
         <v>2</v>
       </c>
       <c r="P101" s="1">
@@ -5940,16 +5935,16 @@
       <c r="K102" s="1">
         <v>5</v>
       </c>
-      <c r="L102" s="6">
-        <v>3</v>
-      </c>
-      <c r="M102" s="6">
+      <c r="L102" s="1">
+        <v>3</v>
+      </c>
+      <c r="M102" s="1">
         <v>1</v>
       </c>
       <c r="N102" s="1">
         <v>4</v>
       </c>
-      <c r="O102" s="6">
+      <c r="O102" s="1">
         <v>5</v>
       </c>
       <c r="P102" s="1">
@@ -5990,16 +5985,16 @@
       <c r="K103" s="1">
         <v>5</v>
       </c>
-      <c r="L103" s="6">
-        <v>3</v>
-      </c>
-      <c r="M103" s="6">
+      <c r="L103" s="1">
+        <v>3</v>
+      </c>
+      <c r="M103" s="1">
         <v>2</v>
       </c>
       <c r="N103" s="1">
         <v>4</v>
       </c>
-      <c r="O103" s="6">
+      <c r="O103" s="1">
         <v>1</v>
       </c>
       <c r="P103" s="1">
@@ -6040,16 +6035,16 @@
       <c r="K104" s="1">
         <v>3</v>
       </c>
-      <c r="L104" s="6">
-        <v>5</v>
-      </c>
-      <c r="M104" s="6">
+      <c r="L104" s="1">
+        <v>5</v>
+      </c>
+      <c r="M104" s="1">
         <v>4</v>
       </c>
       <c r="N104" s="1">
         <v>3</v>
       </c>
-      <c r="O104" s="6">
+      <c r="O104" s="1">
         <v>2</v>
       </c>
       <c r="P104" s="1">
@@ -6090,16 +6085,16 @@
       <c r="K105" s="1">
         <v>4</v>
       </c>
-      <c r="L105" s="6">
-        <v>4</v>
-      </c>
-      <c r="M105" s="6">
+      <c r="L105" s="1">
+        <v>4</v>
+      </c>
+      <c r="M105" s="1">
         <v>3</v>
       </c>
       <c r="N105" s="1">
         <v>4</v>
       </c>
-      <c r="O105" s="6">
+      <c r="O105" s="1">
         <v>3</v>
       </c>
       <c r="P105" s="1">
@@ -6140,16 +6135,16 @@
       <c r="K106" s="1">
         <v>4</v>
       </c>
-      <c r="L106" s="6">
-        <v>2</v>
-      </c>
-      <c r="M106" s="6">
+      <c r="L106" s="1">
+        <v>2</v>
+      </c>
+      <c r="M106" s="1">
         <v>3</v>
       </c>
       <c r="N106" s="1">
         <v>5</v>
       </c>
-      <c r="O106" s="6">
+      <c r="O106" s="1">
         <v>3</v>
       </c>
       <c r="P106" s="1">
@@ -6190,16 +6185,16 @@
       <c r="K107" s="1">
         <v>4</v>
       </c>
-      <c r="L107" s="6">
-        <v>3</v>
-      </c>
-      <c r="M107" s="6">
+      <c r="L107" s="1">
+        <v>3</v>
+      </c>
+      <c r="M107" s="1">
         <v>2</v>
       </c>
       <c r="N107" s="1">
         <v>3</v>
       </c>
-      <c r="O107" s="6">
+      <c r="O107" s="1">
         <v>3</v>
       </c>
       <c r="P107" s="1">
@@ -6240,16 +6235,16 @@
       <c r="K108" s="1">
         <v>3</v>
       </c>
-      <c r="L108" s="6">
-        <v>3</v>
-      </c>
-      <c r="M108" s="6">
+      <c r="L108" s="1">
+        <v>3</v>
+      </c>
+      <c r="M108" s="1">
         <v>4</v>
       </c>
       <c r="N108" s="1">
         <v>2</v>
       </c>
-      <c r="O108" s="6">
+      <c r="O108" s="1">
         <v>2</v>
       </c>
       <c r="P108" s="1">
@@ -6290,16 +6285,16 @@
       <c r="K109" s="1">
         <v>4</v>
       </c>
-      <c r="L109" s="6">
-        <v>2</v>
-      </c>
-      <c r="M109" s="6">
+      <c r="L109" s="1">
+        <v>2</v>
+      </c>
+      <c r="M109" s="1">
         <v>2</v>
       </c>
       <c r="N109" s="1">
         <v>4</v>
       </c>
-      <c r="O109" s="6">
+      <c r="O109" s="1">
         <v>4</v>
       </c>
       <c r="P109" s="1">
@@ -6340,16 +6335,16 @@
       <c r="K110" s="1">
         <v>5</v>
       </c>
-      <c r="L110" s="6">
-        <v>5</v>
-      </c>
-      <c r="M110" s="6">
+      <c r="L110" s="1">
+        <v>5</v>
+      </c>
+      <c r="M110" s="1">
         <v>3</v>
       </c>
       <c r="N110" s="1">
         <v>3</v>
       </c>
-      <c r="O110" s="6">
+      <c r="O110" s="1">
         <v>2</v>
       </c>
       <c r="P110" s="1">
@@ -6390,16 +6385,16 @@
       <c r="K111" s="1">
         <v>5</v>
       </c>
-      <c r="L111" s="6">
-        <v>2</v>
-      </c>
-      <c r="M111" s="6">
+      <c r="L111" s="1">
+        <v>2</v>
+      </c>
+      <c r="M111" s="1">
         <v>3</v>
       </c>
       <c r="N111" s="1">
         <v>5</v>
       </c>
-      <c r="O111" s="6">
+      <c r="O111" s="1">
         <v>2</v>
       </c>
       <c r="P111" s="1">
@@ -6440,16 +6435,16 @@
       <c r="K112" s="1">
         <v>5</v>
       </c>
-      <c r="L112" s="6">
-        <v>2</v>
-      </c>
-      <c r="M112" s="6">
+      <c r="L112" s="1">
+        <v>2</v>
+      </c>
+      <c r="M112" s="1">
         <v>2</v>
       </c>
       <c r="N112" s="1">
         <v>3</v>
       </c>
-      <c r="O112" s="6">
+      <c r="O112" s="1">
         <v>2</v>
       </c>
       <c r="P112" s="1">
@@ -6490,16 +6485,16 @@
       <c r="K113" s="1">
         <v>3</v>
       </c>
-      <c r="L113" s="6">
-        <v>4</v>
-      </c>
-      <c r="M113" s="6">
+      <c r="L113" s="1">
+        <v>4</v>
+      </c>
+      <c r="M113" s="1">
         <v>3</v>
       </c>
       <c r="N113" s="1">
         <v>4</v>
       </c>
-      <c r="O113" s="6">
+      <c r="O113" s="1">
         <v>3</v>
       </c>
       <c r="P113" s="1">
@@ -6540,16 +6535,16 @@
       <c r="K114" s="1">
         <v>1</v>
       </c>
-      <c r="L114" s="6">
-        <v>3</v>
-      </c>
-      <c r="M114" s="6">
+      <c r="L114" s="1">
+        <v>3</v>
+      </c>
+      <c r="M114" s="1">
         <v>2</v>
       </c>
       <c r="N114" s="1">
         <v>2</v>
       </c>
-      <c r="O114" s="6">
+      <c r="O114" s="1">
         <v>1</v>
       </c>
       <c r="P114" s="1">
@@ -6590,16 +6585,16 @@
       <c r="K115" s="1">
         <v>4</v>
       </c>
-      <c r="L115" s="6">
-        <v>4</v>
-      </c>
-      <c r="M115" s="6">
+      <c r="L115" s="1">
+        <v>4</v>
+      </c>
+      <c r="M115" s="1">
         <v>2</v>
       </c>
       <c r="N115" s="1">
         <v>3</v>
       </c>
-      <c r="O115" s="6">
+      <c r="O115" s="1">
         <v>2</v>
       </c>
       <c r="P115" s="1">
@@ -6640,16 +6635,16 @@
       <c r="K116" s="1">
         <v>5</v>
       </c>
-      <c r="L116" s="6">
-        <v>3</v>
-      </c>
-      <c r="M116" s="6">
+      <c r="L116" s="1">
+        <v>3</v>
+      </c>
+      <c r="M116" s="1">
         <v>4</v>
       </c>
       <c r="N116" s="1">
         <v>2</v>
       </c>
-      <c r="O116" s="6">
+      <c r="O116" s="1">
         <v>1</v>
       </c>
       <c r="P116" s="1">
@@ -6690,16 +6685,16 @@
       <c r="K117" s="1">
         <v>4</v>
       </c>
-      <c r="L117" s="6">
-        <v>4</v>
-      </c>
-      <c r="M117" s="6">
+      <c r="L117" s="1">
+        <v>4</v>
+      </c>
+      <c r="M117" s="1">
         <v>3</v>
       </c>
       <c r="N117" s="1">
         <v>2</v>
       </c>
-      <c r="O117" s="6">
+      <c r="O117" s="1">
         <v>1</v>
       </c>
       <c r="P117" s="1">
@@ -6740,16 +6735,16 @@
       <c r="K118" s="1">
         <v>5</v>
       </c>
-      <c r="L118" s="6">
-        <v>2</v>
-      </c>
-      <c r="M118" s="6">
+      <c r="L118" s="1">
+        <v>2</v>
+      </c>
+      <c r="M118" s="1">
         <v>2</v>
       </c>
       <c r="N118" s="1">
         <v>5</v>
       </c>
-      <c r="O118" s="6">
+      <c r="O118" s="1">
         <v>3</v>
       </c>
       <c r="P118" s="1">
@@ -6790,16 +6785,16 @@
       <c r="K119" s="1">
         <v>5</v>
       </c>
-      <c r="L119" s="6">
-        <v>2</v>
-      </c>
-      <c r="M119" s="6">
+      <c r="L119" s="1">
+        <v>2</v>
+      </c>
+      <c r="M119" s="1">
         <v>3</v>
       </c>
       <c r="N119" s="1">
         <v>3</v>
       </c>
-      <c r="O119" s="6">
+      <c r="O119" s="1">
         <v>1</v>
       </c>
       <c r="P119" s="1">
@@ -6840,16 +6835,16 @@
       <c r="K120" s="1">
         <v>4</v>
       </c>
-      <c r="L120" s="6">
-        <v>3</v>
-      </c>
-      <c r="M120" s="6">
+      <c r="L120" s="1">
+        <v>3</v>
+      </c>
+      <c r="M120" s="1">
         <v>2</v>
       </c>
       <c r="N120" s="1">
         <v>3</v>
       </c>
-      <c r="O120" s="6">
+      <c r="O120" s="1">
         <v>2</v>
       </c>
       <c r="P120" s="1">
@@ -6890,16 +6885,16 @@
       <c r="K121" s="1">
         <v>5</v>
       </c>
-      <c r="L121" s="6">
-        <v>2</v>
-      </c>
-      <c r="M121" s="6">
+      <c r="L121" s="1">
+        <v>2</v>
+      </c>
+      <c r="M121" s="1">
         <v>1</v>
       </c>
       <c r="N121" s="1">
         <v>5</v>
       </c>
-      <c r="O121" s="6">
+      <c r="O121" s="1">
         <v>1</v>
       </c>
       <c r="P121" s="1">
@@ -6940,16 +6935,16 @@
       <c r="K122" s="1">
         <v>5</v>
       </c>
-      <c r="L122" s="6">
-        <v>2</v>
-      </c>
-      <c r="M122" s="6">
+      <c r="L122" s="1">
+        <v>2</v>
+      </c>
+      <c r="M122" s="1">
         <v>1</v>
       </c>
       <c r="N122" s="1">
         <v>4</v>
       </c>
-      <c r="O122" s="6">
+      <c r="O122" s="1">
         <v>2</v>
       </c>
       <c r="P122" s="1">
@@ -6990,16 +6985,16 @@
       <c r="K123" s="1">
         <v>3</v>
       </c>
-      <c r="L123" s="6">
-        <v>3</v>
-      </c>
-      <c r="M123" s="6">
+      <c r="L123" s="1">
+        <v>3</v>
+      </c>
+      <c r="M123" s="1">
         <v>3</v>
       </c>
       <c r="N123" s="1">
         <v>3</v>
       </c>
-      <c r="O123" s="6">
+      <c r="O123" s="1">
         <v>2</v>
       </c>
       <c r="P123" s="1">
@@ -7040,16 +7035,16 @@
       <c r="K124" s="1">
         <v>5</v>
       </c>
-      <c r="L124" s="6">
-        <v>3</v>
-      </c>
-      <c r="M124" s="6">
+      <c r="L124" s="1">
+        <v>3</v>
+      </c>
+      <c r="M124" s="1">
         <v>2</v>
       </c>
       <c r="N124" s="1">
         <v>2</v>
       </c>
-      <c r="O124" s="6">
+      <c r="O124" s="1">
         <v>3</v>
       </c>
       <c r="P124" s="1">
@@ -7090,16 +7085,16 @@
       <c r="K125" s="1">
         <v>4</v>
       </c>
-      <c r="L125" s="6">
-        <v>3</v>
-      </c>
-      <c r="M125" s="6">
+      <c r="L125" s="1">
+        <v>3</v>
+      </c>
+      <c r="M125" s="1">
         <v>3</v>
       </c>
       <c r="N125" s="1">
         <v>3</v>
       </c>
-      <c r="O125" s="6">
+      <c r="O125" s="1">
         <v>2</v>
       </c>
       <c r="P125" s="1">
@@ -7140,16 +7135,16 @@
       <c r="K126" s="1">
         <v>3</v>
       </c>
-      <c r="L126" s="6">
-        <v>4</v>
-      </c>
-      <c r="M126" s="6">
+      <c r="L126" s="1">
+        <v>4</v>
+      </c>
+      <c r="M126" s="1">
         <v>3</v>
       </c>
       <c r="N126" s="1">
         <v>2</v>
       </c>
-      <c r="O126" s="6">
+      <c r="O126" s="1">
         <v>3</v>
       </c>
       <c r="P126" s="1">
@@ -7190,16 +7185,16 @@
       <c r="K127" s="1">
         <v>4</v>
       </c>
-      <c r="L127" s="6">
-        <v>3</v>
-      </c>
-      <c r="M127" s="6">
+      <c r="L127" s="1">
+        <v>3</v>
+      </c>
+      <c r="M127" s="1">
         <v>3</v>
       </c>
       <c r="N127" s="1">
         <v>4</v>
       </c>
-      <c r="O127" s="6">
+      <c r="O127" s="1">
         <v>2</v>
       </c>
       <c r="P127" s="1">
@@ -7240,16 +7235,16 @@
       <c r="K128" s="1">
         <v>3</v>
       </c>
-      <c r="L128" s="6">
-        <v>4</v>
-      </c>
-      <c r="M128" s="6">
+      <c r="L128" s="1">
+        <v>4</v>
+      </c>
+      <c r="M128" s="1">
         <v>3</v>
       </c>
       <c r="N128" s="1">
         <v>2</v>
       </c>
-      <c r="O128" s="6">
+      <c r="O128" s="1">
         <v>3</v>
       </c>
       <c r="P128" s="1">
@@ -7290,16 +7285,16 @@
       <c r="K129" s="1">
         <v>4</v>
       </c>
-      <c r="L129" s="6">
-        <v>3</v>
-      </c>
-      <c r="M129" s="6">
+      <c r="L129" s="1">
+        <v>3</v>
+      </c>
+      <c r="M129" s="1">
         <v>3</v>
       </c>
       <c r="N129" s="1">
         <v>5</v>
       </c>
-      <c r="O129" s="6">
+      <c r="O129" s="1">
         <v>2</v>
       </c>
       <c r="P129" s="1">
@@ -7340,16 +7335,16 @@
       <c r="K130" s="1">
         <v>3</v>
       </c>
-      <c r="L130" s="6">
-        <v>3</v>
-      </c>
-      <c r="M130" s="6">
+      <c r="L130" s="1">
+        <v>3</v>
+      </c>
+      <c r="M130" s="1">
         <v>3</v>
       </c>
       <c r="N130" s="1">
         <v>4</v>
       </c>
-      <c r="O130" s="6">
+      <c r="O130" s="1">
         <v>2</v>
       </c>
       <c r="P130" s="1">
@@ -7390,16 +7385,16 @@
       <c r="K131" s="1">
         <v>4</v>
       </c>
-      <c r="L131" s="6">
-        <v>5</v>
-      </c>
-      <c r="M131" s="6">
+      <c r="L131" s="1">
+        <v>5</v>
+      </c>
+      <c r="M131" s="1">
         <v>3</v>
       </c>
       <c r="N131" s="1">
         <v>5</v>
       </c>
-      <c r="O131" s="6">
+      <c r="O131" s="1">
         <v>3</v>
       </c>
       <c r="P131" s="1">
@@ -7440,16 +7435,16 @@
       <c r="K132" s="1">
         <v>4</v>
       </c>
-      <c r="L132" s="6">
-        <v>3</v>
-      </c>
-      <c r="M132" s="6">
+      <c r="L132" s="1">
+        <v>3</v>
+      </c>
+      <c r="M132" s="1">
         <v>3</v>
       </c>
       <c r="N132" s="1">
         <v>5</v>
       </c>
-      <c r="O132" s="6">
+      <c r="O132" s="1">
         <v>1</v>
       </c>
       <c r="P132" s="1">
@@ -7490,16 +7485,16 @@
       <c r="K133" s="1">
         <v>2</v>
       </c>
-      <c r="L133" s="6">
-        <v>3</v>
-      </c>
-      <c r="M133" s="6">
+      <c r="L133" s="1">
+        <v>3</v>
+      </c>
+      <c r="M133" s="1">
         <v>3</v>
       </c>
       <c r="N133" s="1">
         <v>3</v>
       </c>
-      <c r="O133" s="6">
+      <c r="O133" s="1">
         <v>3</v>
       </c>
       <c r="P133" s="1">
@@ -7540,16 +7535,16 @@
       <c r="K134" s="1">
         <v>4</v>
       </c>
-      <c r="L134" s="6">
-        <v>2</v>
-      </c>
-      <c r="M134" s="6">
+      <c r="L134" s="1">
+        <v>2</v>
+      </c>
+      <c r="M134" s="1">
         <v>2</v>
       </c>
       <c r="N134" s="1">
         <v>4</v>
       </c>
-      <c r="O134" s="6">
+      <c r="O134" s="1">
         <v>3</v>
       </c>
       <c r="P134" s="1">
@@ -7590,16 +7585,16 @@
       <c r="K135" s="1">
         <v>4</v>
       </c>
-      <c r="L135" s="6">
-        <v>2</v>
-      </c>
-      <c r="M135" s="6">
+      <c r="L135" s="1">
+        <v>2</v>
+      </c>
+      <c r="M135" s="1">
         <v>1</v>
       </c>
       <c r="N135" s="1">
         <v>4</v>
       </c>
-      <c r="O135" s="6">
+      <c r="O135" s="1">
         <v>2</v>
       </c>
       <c r="P135" s="1">
@@ -7640,16 +7635,16 @@
       <c r="K136" s="1">
         <v>5</v>
       </c>
-      <c r="L136" s="6">
-        <v>4</v>
-      </c>
-      <c r="M136" s="6">
+      <c r="L136" s="1">
+        <v>4</v>
+      </c>
+      <c r="M136" s="1">
         <v>2</v>
       </c>
       <c r="N136" s="1">
         <v>4</v>
       </c>
-      <c r="O136" s="6">
+      <c r="O136" s="1">
         <v>3</v>
       </c>
       <c r="P136" s="1">
@@ -7690,16 +7685,16 @@
       <c r="K137" s="1">
         <v>5</v>
       </c>
-      <c r="L137" s="6">
-        <v>4</v>
-      </c>
-      <c r="M137" s="6">
+      <c r="L137" s="1">
+        <v>4</v>
+      </c>
+      <c r="M137" s="1">
         <v>4</v>
       </c>
       <c r="N137" s="1">
         <v>4</v>
       </c>
-      <c r="O137" s="6">
+      <c r="O137" s="1">
         <v>1</v>
       </c>
       <c r="P137" s="1">
@@ -7740,16 +7735,16 @@
       <c r="K138" s="1">
         <v>5</v>
       </c>
-      <c r="L138" s="6">
-        <v>5</v>
-      </c>
-      <c r="M138" s="6">
+      <c r="L138" s="1">
+        <v>5</v>
+      </c>
+      <c r="M138" s="1">
         <v>4</v>
       </c>
       <c r="N138" s="1">
         <v>5</v>
       </c>
-      <c r="O138" s="6">
+      <c r="O138" s="1">
         <v>3</v>
       </c>
       <c r="P138" s="1">
@@ -7790,16 +7785,16 @@
       <c r="K139" s="1">
         <v>4</v>
       </c>
-      <c r="L139" s="6">
-        <v>4</v>
-      </c>
-      <c r="M139" s="6">
+      <c r="L139" s="1">
+        <v>4</v>
+      </c>
+      <c r="M139" s="1">
         <v>4</v>
       </c>
       <c r="N139" s="1">
         <v>4</v>
       </c>
-      <c r="O139" s="6">
+      <c r="O139" s="1">
         <v>2</v>
       </c>
       <c r="P139" s="1">
@@ -7840,16 +7835,16 @@
       <c r="K140" s="1">
         <v>4</v>
       </c>
-      <c r="L140" s="6">
-        <v>3</v>
-      </c>
-      <c r="M140" s="6">
+      <c r="L140" s="1">
+        <v>3</v>
+      </c>
+      <c r="M140" s="1">
         <v>2</v>
       </c>
       <c r="N140" s="1">
         <v>4</v>
       </c>
-      <c r="O140" s="6">
+      <c r="O140" s="1">
         <v>5</v>
       </c>
       <c r="P140" s="1">
@@ -7890,16 +7885,16 @@
       <c r="K141" s="1">
         <v>3</v>
       </c>
-      <c r="L141" s="6">
-        <v>4</v>
-      </c>
-      <c r="M141" s="6">
+      <c r="L141" s="1">
+        <v>4</v>
+      </c>
+      <c r="M141" s="1">
         <v>4</v>
       </c>
       <c r="N141" s="1">
         <v>3</v>
       </c>
-      <c r="O141" s="6">
+      <c r="O141" s="1">
         <v>1</v>
       </c>
       <c r="P141" s="1">
@@ -7940,16 +7935,16 @@
       <c r="K142" s="1">
         <v>4</v>
       </c>
-      <c r="L142" s="6">
-        <v>2</v>
-      </c>
-      <c r="M142" s="6">
+      <c r="L142" s="1">
+        <v>2</v>
+      </c>
+      <c r="M142" s="1">
         <v>2</v>
       </c>
       <c r="N142" s="1">
         <v>3</v>
       </c>
-      <c r="O142" s="6">
+      <c r="O142" s="1">
         <v>2</v>
       </c>
       <c r="P142" s="1">
@@ -7990,16 +7985,16 @@
       <c r="K143" s="1">
         <v>2</v>
       </c>
-      <c r="L143" s="6">
-        <v>5</v>
-      </c>
-      <c r="M143" s="6">
+      <c r="L143" s="1">
+        <v>5</v>
+      </c>
+      <c r="M143" s="1">
         <v>4</v>
       </c>
       <c r="N143" s="1">
         <v>2</v>
       </c>
-      <c r="O143" s="6">
+      <c r="O143" s="1">
         <v>5</v>
       </c>
       <c r="P143" s="1">
@@ -8040,16 +8035,16 @@
       <c r="K144" s="1">
         <v>3</v>
       </c>
-      <c r="L144" s="6">
-        <v>3</v>
-      </c>
-      <c r="M144" s="6">
+      <c r="L144" s="1">
+        <v>3</v>
+      </c>
+      <c r="M144" s="1">
         <v>4</v>
       </c>
       <c r="N144" s="1">
         <v>4</v>
       </c>
-      <c r="O144" s="6">
+      <c r="O144" s="1">
         <v>5</v>
       </c>
       <c r="P144" s="1">
@@ -8090,16 +8085,16 @@
       <c r="K145" s="1">
         <v>5</v>
       </c>
-      <c r="L145" s="6">
-        <v>5</v>
-      </c>
-      <c r="M145" s="6">
+      <c r="L145" s="1">
+        <v>5</v>
+      </c>
+      <c r="M145" s="1">
         <v>3</v>
       </c>
       <c r="N145" s="1">
         <v>1</v>
       </c>
-      <c r="O145" s="6">
+      <c r="O145" s="1">
         <v>1</v>
       </c>
       <c r="P145" s="1">
@@ -8140,16 +8135,16 @@
       <c r="K146" s="1">
         <v>4</v>
       </c>
-      <c r="L146" s="6">
-        <v>3</v>
-      </c>
-      <c r="M146" s="6">
+      <c r="L146" s="1">
+        <v>3</v>
+      </c>
+      <c r="M146" s="1">
         <v>4</v>
       </c>
       <c r="N146" s="1">
         <v>3</v>
       </c>
-      <c r="O146" s="6">
+      <c r="O146" s="1">
         <v>2</v>
       </c>
       <c r="P146" s="1">
@@ -8190,16 +8185,16 @@
       <c r="K147" s="1">
         <v>4</v>
       </c>
-      <c r="L147" s="6">
-        <v>2</v>
-      </c>
-      <c r="M147" s="6">
+      <c r="L147" s="1">
+        <v>2</v>
+      </c>
+      <c r="M147" s="1">
         <v>2</v>
       </c>
       <c r="N147" s="1">
         <v>3</v>
       </c>
-      <c r="O147" s="6">
+      <c r="O147" s="1">
         <v>2</v>
       </c>
       <c r="P147" s="1">
@@ -8240,16 +8235,16 @@
       <c r="K148" s="1">
         <v>5</v>
       </c>
-      <c r="L148" s="6">
-        <v>5</v>
-      </c>
-      <c r="M148" s="6">
+      <c r="L148" s="1">
+        <v>5</v>
+      </c>
+      <c r="M148" s="1">
         <v>3</v>
       </c>
       <c r="N148" s="1">
         <v>5</v>
       </c>
-      <c r="O148" s="6">
+      <c r="O148" s="1">
         <v>3</v>
       </c>
       <c r="P148" s="1">
@@ -8290,16 +8285,16 @@
       <c r="K149" s="1">
         <v>2</v>
       </c>
-      <c r="L149" s="6">
-        <v>4</v>
-      </c>
-      <c r="M149" s="6">
+      <c r="L149" s="1">
+        <v>4</v>
+      </c>
+      <c r="M149" s="1">
         <v>4</v>
       </c>
       <c r="N149" s="1">
         <v>2</v>
       </c>
-      <c r="O149" s="6">
+      <c r="O149" s="1">
         <v>1</v>
       </c>
       <c r="P149" s="1">
@@ -8340,16 +8335,16 @@
       <c r="K150" s="1">
         <v>4</v>
       </c>
-      <c r="L150" s="6">
-        <v>4</v>
-      </c>
-      <c r="M150" s="6">
+      <c r="L150" s="1">
+        <v>4</v>
+      </c>
+      <c r="M150" s="1">
         <v>2</v>
       </c>
       <c r="N150" s="1">
         <v>4</v>
       </c>
-      <c r="O150" s="6">
+      <c r="O150" s="1">
         <v>2</v>
       </c>
       <c r="P150" s="1">
@@ -8390,16 +8385,16 @@
       <c r="K151" s="1">
         <v>4</v>
       </c>
-      <c r="L151" s="6">
-        <v>3</v>
-      </c>
-      <c r="M151" s="6">
+      <c r="L151" s="1">
+        <v>3</v>
+      </c>
+      <c r="M151" s="1">
         <v>4</v>
       </c>
       <c r="N151" s="1">
         <v>3</v>
       </c>
-      <c r="O151" s="6">
+      <c r="O151" s="1">
         <v>5</v>
       </c>
       <c r="P151" s="1">
@@ -8440,16 +8435,16 @@
       <c r="K152" s="1">
         <v>5</v>
       </c>
-      <c r="L152" s="6">
-        <v>5</v>
-      </c>
-      <c r="M152" s="6">
+      <c r="L152" s="1">
+        <v>5</v>
+      </c>
+      <c r="M152" s="1">
         <v>3</v>
       </c>
       <c r="N152" s="1">
         <v>5</v>
       </c>
-      <c r="O152" s="6">
+      <c r="O152" s="1">
         <v>3</v>
       </c>
       <c r="P152" s="1">
@@ -8490,16 +8485,16 @@
       <c r="K153" s="1">
         <v>3</v>
       </c>
-      <c r="L153" s="6">
-        <v>3</v>
-      </c>
-      <c r="M153" s="6">
+      <c r="L153" s="1">
+        <v>3</v>
+      </c>
+      <c r="M153" s="1">
         <v>3</v>
       </c>
       <c r="N153" s="1">
         <v>3</v>
       </c>
-      <c r="O153" s="6">
+      <c r="O153" s="1">
         <v>2</v>
       </c>
       <c r="P153" s="1">
@@ -8540,16 +8535,16 @@
       <c r="K154" s="1">
         <v>4</v>
       </c>
-      <c r="L154" s="6">
-        <v>4</v>
-      </c>
-      <c r="M154" s="6">
+      <c r="L154" s="1">
+        <v>4</v>
+      </c>
+      <c r="M154" s="1">
         <v>3</v>
       </c>
       <c r="N154" s="1">
         <v>2</v>
       </c>
-      <c r="O154" s="6">
+      <c r="O154" s="1">
         <v>3</v>
       </c>
       <c r="P154" s="1">
@@ -8590,16 +8585,16 @@
       <c r="K155" s="1">
         <v>3</v>
       </c>
-      <c r="L155" s="6">
-        <v>4</v>
-      </c>
-      <c r="M155" s="6">
+      <c r="L155" s="1">
+        <v>4</v>
+      </c>
+      <c r="M155" s="1">
         <v>2</v>
       </c>
       <c r="N155" s="1">
         <v>4</v>
       </c>
-      <c r="O155" s="6">
+      <c r="O155" s="1">
         <v>4</v>
       </c>
       <c r="P155" s="1">
@@ -8640,16 +8635,16 @@
       <c r="K156" s="1">
         <v>4</v>
       </c>
-      <c r="L156" s="6">
-        <v>2</v>
-      </c>
-      <c r="M156" s="6">
+      <c r="L156" s="1">
+        <v>2</v>
+      </c>
+      <c r="M156" s="1">
         <v>2</v>
       </c>
       <c r="N156" s="1">
         <v>3</v>
       </c>
-      <c r="O156" s="6">
+      <c r="O156" s="1">
         <v>2</v>
       </c>
       <c r="P156" s="1">
@@ -8690,16 +8685,16 @@
       <c r="K157" s="1">
         <v>3</v>
       </c>
-      <c r="L157" s="6">
-        <v>3</v>
-      </c>
-      <c r="M157" s="6">
+      <c r="L157" s="1">
+        <v>3</v>
+      </c>
+      <c r="M157" s="1">
         <v>2</v>
       </c>
       <c r="N157" s="1">
         <v>4</v>
       </c>
-      <c r="O157" s="6">
+      <c r="O157" s="1">
         <v>2</v>
       </c>
       <c r="P157" s="1">
@@ -8740,16 +8735,16 @@
       <c r="K158" s="1">
         <v>1</v>
       </c>
-      <c r="L158" s="6">
-        <v>2</v>
-      </c>
-      <c r="M158" s="6">
+      <c r="L158" s="1">
+        <v>2</v>
+      </c>
+      <c r="M158" s="1">
         <v>1</v>
       </c>
       <c r="N158" s="1">
         <v>2</v>
       </c>
-      <c r="O158" s="6">
+      <c r="O158" s="1">
         <v>3</v>
       </c>
       <c r="P158" s="1">
@@ -8767,7 +8762,7 @@
         <v>20</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>7</v>
@@ -8790,16 +8785,16 @@
       <c r="K159" s="1">
         <v>1</v>
       </c>
-      <c r="L159" s="6">
-        <v>1</v>
-      </c>
-      <c r="M159" s="6">
+      <c r="L159" s="1">
+        <v>1</v>
+      </c>
+      <c r="M159" s="1">
         <v>1</v>
       </c>
       <c r="N159" s="1">
         <v>1</v>
       </c>
-      <c r="O159" s="6">
+      <c r="O159" s="1">
         <v>1</v>
       </c>
       <c r="P159" s="1">
@@ -8826,7 +8821,7 @@
         <v>8</v>
       </c>
       <c r="G160" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H160" s="1">
         <v>8</v>
@@ -8840,16 +8835,16 @@
       <c r="K160" s="1">
         <v>1</v>
       </c>
-      <c r="L160" s="6">
-        <v>2</v>
-      </c>
-      <c r="M160" s="6">
+      <c r="L160" s="1">
+        <v>2</v>
+      </c>
+      <c r="M160" s="1">
         <v>1</v>
       </c>
       <c r="N160" s="1">
         <v>2</v>
       </c>
-      <c r="O160" s="6">
+      <c r="O160" s="1">
         <v>3</v>
       </c>
       <c r="P160" s="1">
@@ -8864,13 +8859,13 @@
         <v>19</v>
       </c>
       <c r="C161" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>8</v>
@@ -8890,16 +8885,16 @@
       <c r="K161" s="1">
         <v>1</v>
       </c>
-      <c r="L161" s="6">
-        <v>1</v>
-      </c>
-      <c r="M161" s="6">
+      <c r="L161" s="1">
+        <v>1</v>
+      </c>
+      <c r="M161" s="1">
         <v>1</v>
       </c>
       <c r="N161" s="1">
         <v>1</v>
       </c>
-      <c r="O161" s="6">
+      <c r="O161" s="1">
         <v>1</v>
       </c>
       <c r="P161" s="1">
@@ -8940,16 +8935,16 @@
       <c r="K162" s="1">
         <v>1</v>
       </c>
-      <c r="L162" s="6">
-        <v>1</v>
-      </c>
-      <c r="M162" s="6">
+      <c r="L162" s="1">
+        <v>1</v>
+      </c>
+      <c r="M162" s="1">
         <v>1</v>
       </c>
       <c r="N162" s="1">
         <v>1</v>
       </c>
-      <c r="O162" s="6">
+      <c r="O162" s="1">
         <v>1</v>
       </c>
       <c r="P162" s="1">
@@ -8976,10 +8971,10 @@
         <v>8</v>
       </c>
       <c r="G163" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H163" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I163" s="1">
         <v>1</v>
@@ -8990,16 +8985,16 @@
       <c r="K163" s="1">
         <v>1</v>
       </c>
-      <c r="L163" s="6">
-        <v>2</v>
-      </c>
-      <c r="M163" s="6">
+      <c r="L163" s="1">
+        <v>2</v>
+      </c>
+      <c r="M163" s="1">
         <v>1</v>
       </c>
       <c r="N163" s="1">
         <v>2</v>
       </c>
-      <c r="O163" s="6">
+      <c r="O163" s="1">
         <v>3</v>
       </c>
       <c r="P163" s="1">
@@ -9011,16 +9006,16 @@
         <v>45205.561398888887</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C164" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>8</v>
@@ -9040,16 +9035,16 @@
       <c r="K164" s="1">
         <v>1</v>
       </c>
-      <c r="L164" s="6">
-        <v>1</v>
-      </c>
-      <c r="M164" s="6">
+      <c r="L164" s="1">
+        <v>1</v>
+      </c>
+      <c r="M164" s="1">
         <v>1</v>
       </c>
       <c r="N164" s="1">
         <v>1</v>
       </c>
-      <c r="O164" s="6">
+      <c r="O164" s="1">
         <v>1</v>
       </c>
       <c r="P164" s="1">
@@ -9076,10 +9071,10 @@
         <v>8</v>
       </c>
       <c r="G165" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H165" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
@@ -9090,16 +9085,16 @@
       <c r="K165" s="1">
         <v>1</v>
       </c>
-      <c r="L165" s="6">
-        <v>2</v>
-      </c>
-      <c r="M165" s="6">
+      <c r="L165" s="1">
+        <v>2</v>
+      </c>
+      <c r="M165" s="1">
         <v>1</v>
       </c>
       <c r="N165" s="1">
         <v>2</v>
       </c>
-      <c r="O165" s="6">
+      <c r="O165" s="1">
         <v>3</v>
       </c>
       <c r="P165" s="1">
@@ -9117,7 +9112,7 @@
         <v>20</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>7</v>
@@ -9140,16 +9135,16 @@
       <c r="K166" s="1">
         <v>1</v>
       </c>
-      <c r="L166" s="6">
-        <v>1</v>
-      </c>
-      <c r="M166" s="6">
+      <c r="L166" s="1">
+        <v>1</v>
+      </c>
+      <c r="M166" s="1">
         <v>1</v>
       </c>
       <c r="N166" s="1">
         <v>1</v>
       </c>
-      <c r="O166" s="6">
+      <c r="O166" s="1">
         <v>1</v>
       </c>
       <c r="P166" s="1">
@@ -9190,16 +9185,16 @@
       <c r="K167" s="1">
         <v>1</v>
       </c>
-      <c r="L167" s="6">
-        <v>2</v>
-      </c>
-      <c r="M167" s="6">
+      <c r="L167" s="1">
+        <v>2</v>
+      </c>
+      <c r="M167" s="1">
         <v>1</v>
       </c>
       <c r="N167" s="1">
         <v>2</v>
       </c>
-      <c r="O167" s="6">
+      <c r="O167" s="1">
         <v>3</v>
       </c>
       <c r="P167" s="1">
@@ -9217,7 +9212,7 @@
         <v>20</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>7</v>
@@ -9226,7 +9221,7 @@
         <v>8</v>
       </c>
       <c r="G168" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H168" s="1">
         <v>8</v>
@@ -9240,16 +9235,16 @@
       <c r="K168" s="1">
         <v>1</v>
       </c>
-      <c r="L168" s="6">
-        <v>1</v>
-      </c>
-      <c r="M168" s="6">
+      <c r="L168" s="1">
+        <v>1</v>
+      </c>
+      <c r="M168" s="1">
         <v>1</v>
       </c>
       <c r="N168" s="1">
         <v>1</v>
       </c>
-      <c r="O168" s="6">
+      <c r="O168" s="1">
         <v>1</v>
       </c>
       <c r="P168" s="1">
@@ -9267,7 +9262,7 @@
         <v>20</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>7</v>
@@ -9279,7 +9274,7 @@
         <v>10</v>
       </c>
       <c r="H169" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
@@ -9290,16 +9285,16 @@
       <c r="K169" s="1">
         <v>2</v>
       </c>
-      <c r="L169" s="6">
-        <v>2</v>
-      </c>
-      <c r="M169" s="6">
+      <c r="L169" s="1">
+        <v>2</v>
+      </c>
+      <c r="M169" s="1">
         <v>1</v>
       </c>
       <c r="N169" s="1">
         <v>2</v>
       </c>
-      <c r="O169" s="6">
+      <c r="O169" s="1">
         <v>3</v>
       </c>
       <c r="P169" s="1">
@@ -9314,7 +9309,7 @@
         <v>158</v>
       </c>
       <c r="C170" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>10</v>
@@ -9340,16 +9335,16 @@
       <c r="K170" s="1">
         <v>1</v>
       </c>
-      <c r="L170" s="6">
-        <v>1</v>
-      </c>
-      <c r="M170" s="6">
+      <c r="L170" s="1">
+        <v>1</v>
+      </c>
+      <c r="M170" s="1">
         <v>2</v>
       </c>
       <c r="N170" s="1">
         <v>1</v>
       </c>
-      <c r="O170" s="6">
+      <c r="O170" s="1">
         <v>1</v>
       </c>
       <c r="P170" s="1">
@@ -9376,10 +9371,10 @@
         <v>8</v>
       </c>
       <c r="G171" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H171" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I171" s="1">
         <v>1</v>
@@ -9390,16 +9385,16 @@
       <c r="K171" s="1">
         <v>1</v>
       </c>
-      <c r="L171" s="6">
-        <v>2</v>
-      </c>
-      <c r="M171" s="6">
+      <c r="L171" s="1">
+        <v>2</v>
+      </c>
+      <c r="M171" s="1">
         <v>1</v>
       </c>
       <c r="N171" s="1">
         <v>2</v>
       </c>
-      <c r="O171" s="6">
+      <c r="O171" s="1">
         <v>3</v>
       </c>
       <c r="P171" s="1">
@@ -9417,7 +9412,7 @@
         <v>20</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>7</v>
@@ -9440,16 +9435,16 @@
       <c r="K172" s="1">
         <v>2</v>
       </c>
-      <c r="L172" s="6">
-        <v>1</v>
-      </c>
-      <c r="M172" s="6">
+      <c r="L172" s="1">
+        <v>1</v>
+      </c>
+      <c r="M172" s="1">
         <v>1</v>
       </c>
       <c r="N172" s="1">
         <v>1</v>
       </c>
-      <c r="O172" s="6">
+      <c r="O172" s="1">
         <v>1</v>
       </c>
       <c r="P172" s="1">
@@ -9476,7 +9471,7 @@
         <v>8</v>
       </c>
       <c r="G173" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H173" s="1">
         <v>8</v>
@@ -9490,16 +9485,16 @@
       <c r="K173" s="1">
         <v>1</v>
       </c>
-      <c r="L173" s="6">
-        <v>2</v>
-      </c>
-      <c r="M173" s="6">
+      <c r="L173" s="1">
+        <v>2</v>
+      </c>
+      <c r="M173" s="1">
         <v>1</v>
       </c>
       <c r="N173" s="1">
         <v>2</v>
       </c>
-      <c r="O173" s="6">
+      <c r="O173" s="1">
         <v>3</v>
       </c>
       <c r="P173" s="1">
@@ -9514,7 +9509,7 @@
         <v>159</v>
       </c>
       <c r="C174" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>10</v>
@@ -9540,16 +9535,16 @@
       <c r="K174" s="1">
         <v>1</v>
       </c>
-      <c r="L174" s="6">
-        <v>1</v>
-      </c>
-      <c r="M174" s="6">
+      <c r="L174" s="1">
+        <v>1</v>
+      </c>
+      <c r="M174" s="1">
         <v>1</v>
       </c>
       <c r="N174" s="1">
         <v>1</v>
       </c>
-      <c r="O174" s="6">
+      <c r="O174" s="1">
         <v>1</v>
       </c>
       <c r="P174" s="1">
@@ -9590,16 +9585,16 @@
       <c r="K175" s="1">
         <v>3</v>
       </c>
-      <c r="L175" s="6">
-        <v>4</v>
-      </c>
-      <c r="M175" s="6">
+      <c r="L175" s="1">
+        <v>4</v>
+      </c>
+      <c r="M175" s="1">
         <v>3</v>
       </c>
       <c r="N175" s="1">
         <v>2</v>
       </c>
-      <c r="O175" s="6">
+      <c r="O175" s="1">
         <v>3</v>
       </c>
       <c r="P175" s="1">
@@ -9640,16 +9635,16 @@
       <c r="K176" s="1">
         <v>4</v>
       </c>
-      <c r="L176" s="6">
-        <v>3</v>
-      </c>
-      <c r="M176" s="6">
+      <c r="L176" s="1">
+        <v>3</v>
+      </c>
+      <c r="M176" s="1">
         <v>3</v>
       </c>
       <c r="N176" s="1">
         <v>4</v>
       </c>
-      <c r="O176" s="6">
+      <c r="O176" s="1">
         <v>2</v>
       </c>
       <c r="P176" s="1">
@@ -9661,7 +9656,7 @@
         <v>45205.561398888887</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C177" s="1">
         <v>20</v>
@@ -9690,16 +9685,16 @@
       <c r="K177" s="1">
         <v>1</v>
       </c>
-      <c r="L177" s="6">
-        <v>2</v>
-      </c>
-      <c r="M177" s="6">
+      <c r="L177" s="1">
+        <v>2</v>
+      </c>
+      <c r="M177" s="1">
         <v>1</v>
       </c>
       <c r="N177" s="1">
         <v>2</v>
       </c>
-      <c r="O177" s="6">
+      <c r="O177" s="1">
         <v>3</v>
       </c>
       <c r="P177" s="1">
@@ -9740,16 +9735,16 @@
       <c r="K178" s="1">
         <v>4</v>
       </c>
-      <c r="L178" s="6">
-        <v>3</v>
-      </c>
-      <c r="M178" s="6">
+      <c r="L178" s="1">
+        <v>3</v>
+      </c>
+      <c r="M178" s="1">
         <v>3</v>
       </c>
       <c r="N178" s="1">
         <v>5</v>
       </c>
-      <c r="O178" s="6">
+      <c r="O178" s="1">
         <v>2</v>
       </c>
       <c r="P178" s="1">
@@ -9767,7 +9762,7 @@
         <v>20</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>7</v>
@@ -9790,16 +9785,16 @@
       <c r="K179" s="1">
         <v>1</v>
       </c>
-      <c r="L179" s="6">
-        <v>2</v>
-      </c>
-      <c r="M179" s="6">
+      <c r="L179" s="1">
+        <v>2</v>
+      </c>
+      <c r="M179" s="1">
         <v>1</v>
       </c>
       <c r="N179" s="1">
         <v>2</v>
       </c>
-      <c r="O179" s="6">
+      <c r="O179" s="1">
         <v>3</v>
       </c>
       <c r="P179" s="1">
@@ -9840,16 +9835,16 @@
       <c r="K180" s="1">
         <v>1</v>
       </c>
-      <c r="L180" s="6">
-        <v>2</v>
-      </c>
-      <c r="M180" s="6">
+      <c r="L180" s="1">
+        <v>2</v>
+      </c>
+      <c r="M180" s="1">
         <v>1</v>
       </c>
       <c r="N180" s="1">
         <v>2</v>
       </c>
-      <c r="O180" s="6">
+      <c r="O180" s="1">
         <v>3</v>
       </c>
       <c r="P180" s="1">
@@ -9890,16 +9885,16 @@
       <c r="K181" s="1">
         <v>4</v>
       </c>
-      <c r="L181" s="6">
-        <v>3</v>
-      </c>
-      <c r="M181" s="6">
+      <c r="L181" s="1">
+        <v>3</v>
+      </c>
+      <c r="M181" s="1">
         <v>3</v>
       </c>
       <c r="N181" s="1">
         <v>5</v>
       </c>
-      <c r="O181" s="6">
+      <c r="O181" s="1">
         <v>1</v>
       </c>
       <c r="P181" s="1">
@@ -9940,16 +9935,16 @@
       <c r="K182" s="1">
         <v>2</v>
       </c>
-      <c r="L182" s="6">
-        <v>3</v>
-      </c>
-      <c r="M182" s="6">
+      <c r="L182" s="1">
+        <v>3</v>
+      </c>
+      <c r="M182" s="1">
         <v>3</v>
       </c>
       <c r="N182" s="1">
         <v>3</v>
       </c>
-      <c r="O182" s="6">
+      <c r="O182" s="1">
         <v>3</v>
       </c>
       <c r="P182" s="1">
@@ -9990,16 +9985,16 @@
       <c r="K183" s="1">
         <v>4</v>
       </c>
-      <c r="L183" s="6">
-        <v>2</v>
-      </c>
-      <c r="M183" s="6">
+      <c r="L183" s="1">
+        <v>2</v>
+      </c>
+      <c r="M183" s="1">
         <v>2</v>
       </c>
       <c r="N183" s="1">
         <v>4</v>
       </c>
-      <c r="O183" s="6">
+      <c r="O183" s="1">
         <v>3</v>
       </c>
       <c r="P183" s="1">
@@ -10011,13 +10006,13 @@
         <v>45205.561398888887</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C184" s="1">
         <v>20</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>7</v>
@@ -10040,16 +10035,16 @@
       <c r="K184" s="1">
         <v>1</v>
       </c>
-      <c r="L184" s="6">
-        <v>2</v>
-      </c>
-      <c r="M184" s="6">
+      <c r="L184" s="1">
+        <v>2</v>
+      </c>
+      <c r="M184" s="1">
         <v>1</v>
       </c>
       <c r="N184" s="1">
         <v>2</v>
       </c>
-      <c r="O184" s="6">
+      <c r="O184" s="1">
         <v>3</v>
       </c>
       <c r="P184" s="1">
@@ -10090,16 +10085,16 @@
       <c r="K185" s="1">
         <v>1</v>
       </c>
-      <c r="L185" s="6">
-        <v>2</v>
-      </c>
-      <c r="M185" s="6">
+      <c r="L185" s="1">
+        <v>2</v>
+      </c>
+      <c r="M185" s="1">
         <v>1</v>
       </c>
       <c r="N185" s="1">
         <v>2</v>
       </c>
-      <c r="O185" s="6">
+      <c r="O185" s="1">
         <v>3</v>
       </c>
       <c r="P185" s="1">
@@ -10140,16 +10135,16 @@
       <c r="K186" s="1">
         <v>5</v>
       </c>
-      <c r="L186" s="6">
-        <v>4</v>
-      </c>
-      <c r="M186" s="6">
+      <c r="L186" s="1">
+        <v>4</v>
+      </c>
+      <c r="M186" s="1">
         <v>4</v>
       </c>
       <c r="N186" s="1">
         <v>4</v>
       </c>
-      <c r="O186" s="6">
+      <c r="O186" s="1">
         <v>1</v>
       </c>
       <c r="P186" s="1">
@@ -10190,16 +10185,16 @@
       <c r="K187" s="1">
         <v>1</v>
       </c>
-      <c r="L187" s="6">
-        <v>2</v>
-      </c>
-      <c r="M187" s="6">
+      <c r="L187" s="1">
+        <v>2</v>
+      </c>
+      <c r="M187" s="1">
         <v>1</v>
       </c>
       <c r="N187" s="1">
         <v>2</v>
       </c>
-      <c r="O187" s="6">
+      <c r="O187" s="1">
         <v>3</v>
       </c>
       <c r="P187" s="1">
@@ -10240,16 +10235,16 @@
       <c r="K188" s="1">
         <v>4</v>
       </c>
-      <c r="L188" s="6">
-        <v>4</v>
-      </c>
-      <c r="M188" s="6">
+      <c r="L188" s="1">
+        <v>4</v>
+      </c>
+      <c r="M188" s="1">
         <v>4</v>
       </c>
       <c r="N188" s="1">
         <v>4</v>
       </c>
-      <c r="O188" s="6">
+      <c r="O188" s="1">
         <v>2</v>
       </c>
       <c r="P188" s="1">
@@ -10267,7 +10262,7 @@
         <v>20</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>7</v>
@@ -10290,16 +10285,16 @@
       <c r="K189" s="1">
         <v>4</v>
       </c>
-      <c r="L189" s="6">
-        <v>3</v>
-      </c>
-      <c r="M189" s="6">
+      <c r="L189" s="1">
+        <v>3</v>
+      </c>
+      <c r="M189" s="1">
         <v>2</v>
       </c>
       <c r="N189" s="1">
         <v>4</v>
       </c>
-      <c r="O189" s="6">
+      <c r="O189" s="1">
         <v>5</v>
       </c>
       <c r="P189" s="1">
@@ -10340,16 +10335,16 @@
       <c r="K190" s="1">
         <v>3</v>
       </c>
-      <c r="L190" s="6">
-        <v>4</v>
-      </c>
-      <c r="M190" s="6">
+      <c r="L190" s="1">
+        <v>4</v>
+      </c>
+      <c r="M190" s="1">
         <v>4</v>
       </c>
       <c r="N190" s="1">
         <v>3</v>
       </c>
-      <c r="O190" s="6">
+      <c r="O190" s="1">
         <v>1</v>
       </c>
       <c r="P190" s="1">
@@ -10390,16 +10385,16 @@
       <c r="K191" s="1">
         <v>4</v>
       </c>
-      <c r="L191" s="6">
-        <v>2</v>
-      </c>
-      <c r="M191" s="6">
+      <c r="L191" s="1">
+        <v>2</v>
+      </c>
+      <c r="M191" s="1">
         <v>2</v>
       </c>
       <c r="N191" s="4">
         <v>3</v>
       </c>
-      <c r="O191" s="6">
+      <c r="O191" s="1">
         <v>2</v>
       </c>
       <c r="P191" s="1">
@@ -10440,16 +10435,16 @@
       <c r="K192" s="1">
         <v>2</v>
       </c>
-      <c r="L192" s="6">
-        <v>5</v>
-      </c>
-      <c r="M192" s="6">
+      <c r="L192" s="1">
+        <v>5</v>
+      </c>
+      <c r="M192" s="1">
         <v>4</v>
       </c>
       <c r="N192" s="4">
         <v>2</v>
       </c>
-      <c r="O192" s="6">
+      <c r="O192" s="1">
         <v>5</v>
       </c>
       <c r="P192" s="1">
@@ -10490,16 +10485,16 @@
       <c r="K193" s="1">
         <v>1</v>
       </c>
-      <c r="L193" s="6">
-        <v>2</v>
-      </c>
-      <c r="M193" s="6">
+      <c r="L193" s="1">
+        <v>2</v>
+      </c>
+      <c r="M193" s="1">
         <v>1</v>
       </c>
       <c r="N193" s="4">
         <v>2</v>
       </c>
-      <c r="O193" s="6">
+      <c r="O193" s="1">
         <v>3</v>
       </c>
       <c r="P193" s="1">
@@ -10540,16 +10535,16 @@
       <c r="K194" s="1">
         <v>5</v>
       </c>
-      <c r="L194" s="6">
-        <v>5</v>
-      </c>
-      <c r="M194" s="6">
+      <c r="L194" s="1">
+        <v>5</v>
+      </c>
+      <c r="M194" s="1">
         <v>3</v>
       </c>
       <c r="N194" s="4">
         <v>1</v>
       </c>
-      <c r="O194" s="6">
+      <c r="O194" s="1">
         <v>1</v>
       </c>
       <c r="P194" s="1">
@@ -10561,7 +10556,7 @@
         <v>45205.561398888887</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C195" s="1">
         <v>20</v>
@@ -10590,16 +10585,16 @@
       <c r="K195" s="1">
         <v>1</v>
       </c>
-      <c r="L195" s="6">
-        <v>2</v>
-      </c>
-      <c r="M195" s="6">
+      <c r="L195" s="1">
+        <v>2</v>
+      </c>
+      <c r="M195" s="1">
         <v>1</v>
       </c>
       <c r="N195" s="4">
         <v>2</v>
       </c>
-      <c r="O195" s="6">
+      <c r="O195" s="1">
         <v>3</v>
       </c>
       <c r="P195" s="1">
@@ -10640,16 +10635,16 @@
       <c r="K196" s="1">
         <v>4</v>
       </c>
-      <c r="L196" s="6">
-        <v>2</v>
-      </c>
-      <c r="M196" s="6">
+      <c r="L196" s="1">
+        <v>2</v>
+      </c>
+      <c r="M196" s="1">
         <v>2</v>
       </c>
       <c r="N196" s="4">
         <v>3</v>
       </c>
-      <c r="O196" s="6">
+      <c r="O196" s="1">
         <v>2</v>
       </c>
       <c r="P196" s="1">
@@ -10690,16 +10685,16 @@
       <c r="K197" s="1">
         <v>5</v>
       </c>
-      <c r="L197" s="6">
-        <v>5</v>
-      </c>
-      <c r="M197" s="6">
+      <c r="L197" s="1">
+        <v>5</v>
+      </c>
+      <c r="M197" s="1">
         <v>3</v>
       </c>
       <c r="N197" s="4">
         <v>5</v>
       </c>
-      <c r="O197" s="6">
+      <c r="O197" s="1">
         <v>3</v>
       </c>
       <c r="P197" s="1">
@@ -10740,16 +10735,16 @@
       <c r="K198" s="1">
         <v>2</v>
       </c>
-      <c r="L198" s="6">
-        <v>4</v>
-      </c>
-      <c r="M198" s="6">
+      <c r="L198" s="1">
+        <v>4</v>
+      </c>
+      <c r="M198" s="1">
         <v>4</v>
       </c>
       <c r="N198" s="4">
         <v>2</v>
       </c>
-      <c r="O198" s="6">
+      <c r="O198" s="1">
         <v>1</v>
       </c>
       <c r="P198" s="1">
@@ -10790,16 +10785,16 @@
       <c r="K199" s="1">
         <v>1</v>
       </c>
-      <c r="L199" s="6">
-        <v>2</v>
-      </c>
-      <c r="M199" s="6">
+      <c r="L199" s="1">
+        <v>2</v>
+      </c>
+      <c r="M199" s="1">
         <v>1</v>
       </c>
       <c r="N199" s="4">
         <v>2</v>
       </c>
-      <c r="O199" s="6">
+      <c r="O199" s="1">
         <v>3</v>
       </c>
       <c r="P199" s="1">
@@ -10818,353 +10813,353 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
-      <c r="L200" s="6"/>
-      <c r="M200" s="6"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
       <c r="N200" s="4"/>
-      <c r="O200" s="6"/>
+      <c r="O200" s="1"/>
       <c r="P200" s="1"/>
     </row>
     <row r="201" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L201" s="6"/>
-      <c r="M201" s="6"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
       <c r="N201" s="5"/>
-      <c r="O201" s="6"/>
+      <c r="O201" s="1"/>
     </row>
     <row r="202" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L202" s="6"/>
-      <c r="M202" s="6"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
       <c r="N202" s="5"/>
-      <c r="O202" s="6"/>
+      <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L203" s="6"/>
-      <c r="M203" s="6"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
       <c r="N203" s="5"/>
-      <c r="O203" s="6"/>
+      <c r="O203" s="1"/>
     </row>
     <row r="204" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L204" s="6"/>
-      <c r="M204" s="6"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
       <c r="N204" s="5"/>
-      <c r="O204" s="6"/>
+      <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L205" s="6"/>
-      <c r="M205" s="6"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
       <c r="N205" s="5"/>
-      <c r="O205" s="6"/>
+      <c r="O205" s="1"/>
     </row>
     <row r="206" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L206" s="6"/>
-      <c r="M206" s="6"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
       <c r="N206" s="5"/>
-      <c r="O206" s="6"/>
+      <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L207" s="6"/>
-      <c r="M207" s="6"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
       <c r="N207" s="5"/>
-      <c r="O207" s="6"/>
+      <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L208" s="6"/>
-      <c r="M208" s="6"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
       <c r="N208" s="5"/>
-      <c r="O208" s="6"/>
+      <c r="O208" s="1"/>
     </row>
     <row r="209" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L209" s="6"/>
-      <c r="M209" s="6"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
       <c r="N209" s="5"/>
-      <c r="O209" s="6"/>
+      <c r="O209" s="1"/>
     </row>
     <row r="210" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L210" s="6"/>
-      <c r="M210" s="6"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
       <c r="N210" s="5"/>
-      <c r="O210" s="6"/>
+      <c r="O210" s="1"/>
     </row>
     <row r="211" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L211" s="6"/>
-      <c r="M211" s="6"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
       <c r="N211" s="5"/>
-      <c r="O211" s="6"/>
+      <c r="O211" s="1"/>
     </row>
     <row r="212" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L212" s="6"/>
-      <c r="M212" s="6"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
       <c r="N212" s="5"/>
-      <c r="O212" s="6"/>
+      <c r="O212" s="1"/>
     </row>
     <row r="213" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L213" s="6"/>
-      <c r="M213" s="6"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
       <c r="N213" s="5"/>
-      <c r="O213" s="6"/>
+      <c r="O213" s="1"/>
     </row>
     <row r="214" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L214" s="6"/>
-      <c r="M214" s="6"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
       <c r="N214" s="5"/>
-      <c r="O214" s="6"/>
+      <c r="O214" s="1"/>
     </row>
     <row r="215" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L215" s="6"/>
-      <c r="M215" s="6"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
       <c r="N215" s="5"/>
-      <c r="O215" s="6"/>
+      <c r="O215" s="1"/>
     </row>
     <row r="216" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L216" s="6"/>
-      <c r="M216" s="6"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
       <c r="N216" s="5"/>
-      <c r="O216" s="6"/>
+      <c r="O216" s="1"/>
     </row>
     <row r="217" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L217" s="6"/>
-      <c r="M217" s="6"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
       <c r="N217" s="5"/>
-      <c r="O217" s="6"/>
+      <c r="O217" s="1"/>
     </row>
     <row r="218" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L218" s="6"/>
-      <c r="M218" s="6"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
       <c r="N218" s="5"/>
-      <c r="O218" s="6"/>
+      <c r="O218" s="1"/>
     </row>
     <row r="219" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L219" s="6"/>
-      <c r="M219" s="6"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
       <c r="N219" s="5"/>
-      <c r="O219" s="6"/>
+      <c r="O219" s="1"/>
     </row>
     <row r="220" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L220" s="6"/>
-      <c r="M220" s="6"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
       <c r="N220" s="5"/>
-      <c r="O220" s="6"/>
+      <c r="O220" s="1"/>
     </row>
     <row r="221" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L221" s="6"/>
-      <c r="M221" s="6"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
       <c r="N221" s="5"/>
-      <c r="O221" s="6"/>
+      <c r="O221" s="1"/>
     </row>
     <row r="222" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L222" s="6"/>
-      <c r="M222" s="6"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
       <c r="N222" s="5"/>
-      <c r="O222" s="6"/>
+      <c r="O222" s="1"/>
     </row>
     <row r="223" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L223" s="6"/>
-      <c r="M223" s="6"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
       <c r="N223" s="5"/>
-      <c r="O223" s="6"/>
+      <c r="O223" s="1"/>
     </row>
     <row r="224" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L224" s="6"/>
-      <c r="M224" s="6"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
       <c r="N224" s="5"/>
-      <c r="O224" s="6"/>
+      <c r="O224" s="1"/>
     </row>
     <row r="225" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L225" s="6"/>
-      <c r="M225" s="6"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
       <c r="N225" s="5"/>
-      <c r="O225" s="6"/>
+      <c r="O225" s="1"/>
     </row>
     <row r="226" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L226" s="6"/>
-      <c r="M226" s="6"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
       <c r="N226" s="5"/>
-      <c r="O226" s="6"/>
+      <c r="O226" s="1"/>
     </row>
     <row r="227" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L227" s="6"/>
-      <c r="M227" s="6"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
       <c r="N227" s="5"/>
-      <c r="O227" s="6"/>
+      <c r="O227" s="1"/>
     </row>
     <row r="228" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L228" s="6"/>
-      <c r="M228" s="6"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
       <c r="N228" s="5"/>
-      <c r="O228" s="6"/>
+      <c r="O228" s="1"/>
     </row>
     <row r="229" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L229" s="6"/>
-      <c r="M229" s="6"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
       <c r="N229" s="5"/>
-      <c r="O229" s="6"/>
+      <c r="O229" s="1"/>
     </row>
     <row r="230" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L230" s="6"/>
-      <c r="M230" s="6"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
       <c r="N230" s="5"/>
-      <c r="O230" s="6"/>
+      <c r="O230" s="1"/>
     </row>
     <row r="231" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L231" s="6"/>
-      <c r="M231" s="6"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
       <c r="N231" s="5"/>
-      <c r="O231" s="6"/>
+      <c r="O231" s="1"/>
     </row>
     <row r="232" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L232" s="6"/>
-      <c r="M232" s="6"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="6"/>
+      <c r="O232" s="1"/>
     </row>
     <row r="233" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L233" s="6"/>
-      <c r="M233" s="6"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
       <c r="N233" s="5"/>
-      <c r="O233" s="6"/>
+      <c r="O233" s="1"/>
     </row>
     <row r="234" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L234" s="6"/>
-      <c r="M234" s="6"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
       <c r="N234" s="5"/>
-      <c r="O234" s="6"/>
+      <c r="O234" s="1"/>
     </row>
     <row r="235" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L235" s="6"/>
-      <c r="M235" s="6"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
       <c r="N235" s="5"/>
-      <c r="O235" s="6"/>
+      <c r="O235" s="1"/>
     </row>
     <row r="236" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L236" s="6"/>
-      <c r="M236" s="6"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
       <c r="N236" s="5"/>
-      <c r="O236" s="6"/>
+      <c r="O236" s="1"/>
     </row>
     <row r="237" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L237" s="6"/>
-      <c r="M237" s="6"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
       <c r="N237" s="5"/>
-      <c r="O237" s="6"/>
+      <c r="O237" s="1"/>
     </row>
     <row r="238" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L238" s="6"/>
-      <c r="M238" s="6"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
       <c r="N238" s="5"/>
-      <c r="O238" s="6"/>
+      <c r="O238" s="1"/>
     </row>
     <row r="239" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L239" s="6"/>
-      <c r="M239" s="6"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
       <c r="N239" s="5"/>
-      <c r="O239" s="6"/>
+      <c r="O239" s="1"/>
     </row>
     <row r="240" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L240" s="6"/>
-      <c r="M240" s="6"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
       <c r="N240" s="5"/>
-      <c r="O240" s="6"/>
+      <c r="O240" s="1"/>
     </row>
     <row r="241" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L241" s="6"/>
-      <c r="M241" s="6"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
       <c r="N241" s="5"/>
-      <c r="O241" s="6"/>
+      <c r="O241" s="1"/>
     </row>
     <row r="242" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L242" s="6"/>
-      <c r="M242" s="6"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
       <c r="N242" s="5"/>
-      <c r="O242" s="6"/>
+      <c r="O242" s="1"/>
     </row>
     <row r="243" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L243" s="6"/>
-      <c r="M243" s="6"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
       <c r="N243" s="5"/>
-      <c r="O243" s="6"/>
+      <c r="O243" s="1"/>
     </row>
     <row r="244" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L244" s="6"/>
-      <c r="M244" s="6"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
       <c r="N244" s="5"/>
-      <c r="O244" s="6"/>
+      <c r="O244" s="1"/>
     </row>
     <row r="245" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L245" s="6"/>
-      <c r="M245" s="6"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
       <c r="N245" s="5"/>
-      <c r="O245" s="6"/>
+      <c r="O245" s="1"/>
     </row>
     <row r="246" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L246" s="6"/>
-      <c r="M246" s="6"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
       <c r="N246" s="5"/>
-      <c r="O246" s="6"/>
+      <c r="O246" s="1"/>
     </row>
     <row r="247" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L247" s="6"/>
-      <c r="M247" s="6"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
       <c r="N247" s="5"/>
-      <c r="O247" s="6"/>
+      <c r="O247" s="1"/>
     </row>
     <row r="248" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L248" s="6"/>
-      <c r="M248" s="6"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
       <c r="N248" s="5"/>
-      <c r="O248" s="6"/>
+      <c r="O248" s="1"/>
     </row>
     <row r="249" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L249" s="6"/>
-      <c r="M249" s="6"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
       <c r="N249" s="5"/>
-      <c r="O249" s="6"/>
+      <c r="O249" s="1"/>
     </row>
     <row r="250" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L250" s="6"/>
-      <c r="M250" s="6"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
       <c r="N250" s="5"/>
-      <c r="O250" s="6"/>
+      <c r="O250" s="1"/>
     </row>
     <row r="251" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L251" s="6"/>
-      <c r="M251" s="6"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
       <c r="N251" s="5"/>
-      <c r="O251" s="6"/>
+      <c r="O251" s="1"/>
     </row>
     <row r="252" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L252" s="6"/>
-      <c r="M252" s="6"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
       <c r="N252" s="5"/>
-      <c r="O252" s="6"/>
+      <c r="O252" s="1"/>
     </row>
     <row r="253" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L253" s="6"/>
-      <c r="M253" s="6"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
       <c r="N253" s="5"/>
-      <c r="O253" s="6"/>
+      <c r="O253" s="1"/>
     </row>
     <row r="254" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L254" s="6"/>
-      <c r="M254" s="6"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
       <c r="N254" s="5"/>
-      <c r="O254" s="6"/>
+      <c r="O254" s="1"/>
     </row>
     <row r="255" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L255" s="6"/>
-      <c r="M255" s="6"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
       <c r="N255" s="5"/>
-      <c r="O255" s="6"/>
+      <c r="O255" s="1"/>
     </row>
     <row r="256" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L256" s="6"/>
-      <c r="M256" s="6"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
       <c r="N256" s="5"/>
-      <c r="O256" s="6"/>
+      <c r="O256" s="1"/>
     </row>
     <row r="257" spans="12:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="L257" s="6"/>
-      <c r="M257" s="6"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
       <c r="N257" s="5"/>
-      <c r="O257" s="6"/>
+      <c r="O257" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P157">
